--- a/public/DownloadExcels/Sedes.xlsx
+++ b/public/DownloadExcels/Sedes.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Definitivo\ecopFront\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Ecop\ecopFront\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2ED31-8029-4ECA-8F90-50A845A42DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75C2A3-6DE5-483E-9E63-66F06A71D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDES" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Lista desplegable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -4127,7 +4127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -17631,8 +17631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J1117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/public/DownloadExcels/Sedes.xlsx
+++ b/public/DownloadExcels/Sedes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Ecop\ecopFront\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F75C2A3-6DE5-483E-9E63-66F06A71D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F3B10-041C-47F3-AF5D-B174CBBD8909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDES" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable" sheetId="2" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="Lista desplegable" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -4127,7 +4128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -17628,10 +17629,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EDAA99-3185-47A7-BDEA-165E01ABD3EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/public/DownloadExcels/Sedes.xlsx
+++ b/public/DownloadExcels/Sedes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F3B10-041C-47F3-AF5D-B174CBBD8909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22242DB7-BF42-495A-A54B-7AF7A6392C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDES" sheetId="1" r:id="rId1"/>
@@ -27,221 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1100">
   <si>
     <t>CREACION MASIVA DE SEDES</t>
   </si>
   <si>
     <t>Instrucciones para diligenciar el formulario</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.  Escribe el nombre de la sede SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">2. Si el nombre de la sede tiene dos palabras, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SOLO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> debes poner en mayúscula la primera letra de la primera palabra.
-3. Registra la sede </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">UNA (1) SOLA VEZ.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">4. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">B, DIGITA EL NOMBRE DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>5. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> C y D, SELECCIONA EL  DEPARTAMENTO Y LA CIUDAD DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>6. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> E, DIGITA LA DIRECCIÓN DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">8. En las columnas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>F,  DIGITA EL CORREO ELECTRÓNICO DE LA SEDE.
-9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">G, DIGITA EL NÚMERO DE TELÉFONO O CELULAR DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">10. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">H, ESCRIBE EL NOMBRE DEL / DE LA ADMINISTRADOR@ DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>11. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> I, ESCRIBE EL APELLIDO DEL / DE LA ADMINISTRADOR@ DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>12. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> J, SELECCIONA EL TIPO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>13. En la columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> K, DIGITA EL NÚMERO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
-    </r>
   </si>
   <si>
     <t>Nombre de la sede</t>
@@ -3510,6 +3301,42 @@
   </si>
   <si>
     <t>Vaupes</t>
+  </si>
+  <si>
+    <t>1. EN ESTE FORMULARIO TODAS LAS COLUMNAS SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN.  Escribe el nombre de la sede SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula.</t>
+  </si>
+  <si>
+    <t>2. Si el nombre de la sede tiene dos palabras, SOLO debes poner en mayúscula la primera letra de la primera palabra.</t>
+  </si>
+  <si>
+    <t>3. Registra la sede UNA (1) SOLA VEZ.</t>
+  </si>
+  <si>
+    <t>4. En la columna B, DIGITA EL NOMBRE DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>5. En la columna C y D, SELECCIONA EL  DEPARTAMENTO Y LA CIUDAD DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>6. En la columna E, DIGITA LA DIRECCIÓN DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>8. En las columnas F,  DIGITA EL CORREO ELECTRÓNICO DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>9. En la columna G, DIGITA EL NÚMERO DE TELÉFONO O CELULAR DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>10. En la columna H, ESCRIBE EL NOMBRE DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>11. En la columna I, ESCRIBE EL APELLIDO DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>12. En la columna J, SELECCIONA EL TIPO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>13. En la columna K, DIGITA EL NÚMERO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
   </si>
 </sst>
 </file>
@@ -3520,7 +3347,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3535,11 +3362,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3586,12 +3408,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -3802,76 +3618,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4126,10 +3939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4159,107 +3972,107 @@
       <c r="J1" s="24"/>
       <c r="K1" s="25"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" ht="36" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="48" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" ht="207.75" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="48" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
       <c r="A6" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -4274,7 +4087,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
       <c r="A7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -4289,13 +4102,13 @@
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1">
       <c r="A8" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -4304,13 +4117,13 @@
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
       <c r="A9" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -4319,7 +4132,7 @@
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1">
       <c r="A10" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
@@ -4334,7 +4147,7 @@
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1">
       <c r="A11" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
@@ -4349,7 +4162,7 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1">
       <c r="A12" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
@@ -4364,7 +4177,7 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1">
       <c r="A13" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
@@ -4379,7 +4192,7 @@
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
       <c r="A14" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
@@ -4394,7 +4207,7 @@
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -4409,7 +4222,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -4424,7 +4237,7 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
@@ -4439,7 +4252,7 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -4454,7 +4267,7 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -4469,7 +4282,7 @@
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1">
       <c r="A20" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -4484,7 +4297,7 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
@@ -4499,7 +4312,7 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -4514,7 +4327,7 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
@@ -4529,7 +4342,7 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
@@ -4544,7 +4357,7 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
@@ -4559,7 +4372,7 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
@@ -4574,7 +4387,7 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
@@ -4589,7 +4402,7 @@
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1">
       <c r="A28" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
@@ -4604,7 +4417,7 @@
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1">
       <c r="A29" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
@@ -4619,7 +4432,7 @@
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1">
       <c r="A30" s="6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
@@ -4634,7 +4447,7 @@
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1">
       <c r="A31" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
@@ -4649,7 +4462,7 @@
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1">
       <c r="A32" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
@@ -4664,7 +4477,7 @@
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1">
       <c r="A33" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
@@ -4679,7 +4492,7 @@
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1">
       <c r="A34" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
@@ -4694,7 +4507,7 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1">
       <c r="A35" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
@@ -4709,7 +4522,7 @@
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1">
       <c r="A36" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
@@ -4724,7 +4537,7 @@
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1">
       <c r="A37" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
@@ -4739,7 +4552,7 @@
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1">
       <c r="A38" s="6">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
@@ -4754,7 +4567,7 @@
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1">
       <c r="A39" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
@@ -4769,7 +4582,7 @@
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1">
       <c r="A40" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
@@ -4784,7 +4597,7 @@
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1">
       <c r="A41" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
@@ -4799,7 +4612,7 @@
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1">
       <c r="A42" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
@@ -4814,7 +4627,7 @@
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
       <c r="A43" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
@@ -4829,7 +4642,7 @@
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1">
       <c r="A44" s="6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -4844,7 +4657,7 @@
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1">
       <c r="A45" s="6">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
@@ -4859,7 +4672,7 @@
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1">
       <c r="A46" s="6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -4874,7 +4687,7 @@
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1">
       <c r="A47" s="6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
@@ -4889,7 +4702,7 @@
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1">
       <c r="A48" s="6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
@@ -4904,7 +4717,7 @@
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1">
       <c r="A49" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
@@ -4919,7 +4732,7 @@
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1">
       <c r="A50" s="6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
@@ -4934,7 +4747,7 @@
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1">
       <c r="A51" s="6">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -4949,7 +4762,7 @@
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1">
       <c r="A52" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
@@ -4964,7 +4777,7 @@
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1">
       <c r="A53" s="6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
@@ -4979,7 +4792,7 @@
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1">
       <c r="A54" s="6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
@@ -4994,7 +4807,7 @@
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1">
       <c r="A55" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
@@ -5009,7 +4822,7 @@
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="6">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -5024,7 +4837,7 @@
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1">
       <c r="A57" s="6">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -5039,7 +4852,7 @@
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1">
       <c r="A58" s="6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
@@ -5054,7 +4867,7 @@
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1">
       <c r="A59" s="6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="12"/>
@@ -5069,7 +4882,7 @@
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1">
       <c r="A60" s="6">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
@@ -5084,7 +4897,7 @@
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="6">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
@@ -5099,7 +4912,7 @@
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
@@ -5114,7 +4927,7 @@
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="12"/>
@@ -5129,7 +4942,7 @@
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1">
       <c r="A64" s="6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
@@ -5144,7 +4957,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="12"/>
@@ -5159,7 +4972,7 @@
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1">
       <c r="A66" s="6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
@@ -5174,7 +4987,7 @@
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1">
       <c r="A67" s="6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
@@ -5189,7 +5002,7 @@
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="6">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
@@ -5204,7 +5017,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="12"/>
@@ -5219,7 +5032,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
@@ -5234,7 +5047,7 @@
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
@@ -5249,7 +5062,7 @@
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
@@ -5264,7 +5077,7 @@
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="6">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="12"/>
@@ -5279,7 +5092,7 @@
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1">
       <c r="A74" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -5294,7 +5107,7 @@
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="12"/>
@@ -5309,7 +5122,7 @@
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="6">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
@@ -5324,7 +5137,7 @@
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="6">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="12"/>
@@ -5339,7 +5152,7 @@
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="6">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -5354,7 +5167,7 @@
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -5369,7 +5182,7 @@
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
@@ -5384,7 +5197,7 @@
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="12"/>
@@ -5399,7 +5212,7 @@
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="6">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
@@ -5414,7 +5227,7 @@
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="6">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
@@ -5429,7 +5242,7 @@
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="6">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
@@ -5444,7 +5257,7 @@
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="12"/>
@@ -5459,7 +5272,7 @@
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="6">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
@@ -5474,7 +5287,7 @@
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="6">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
@@ -5489,7 +5302,7 @@
     </row>
     <row r="88" spans="1:11" ht="14.25" customHeight="1">
       <c r="A88" s="6">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
@@ -5504,7 +5317,7 @@
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1">
       <c r="A89" s="6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
@@ -5519,7 +5332,7 @@
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="6">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
@@ -5534,7 +5347,7 @@
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="12"/>
@@ -5549,7 +5362,7 @@
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="12"/>
@@ -5564,7 +5377,7 @@
     </row>
     <row r="93" spans="1:11" ht="14.25" customHeight="1">
       <c r="A93" s="6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="12"/>
@@ -5579,7 +5392,7 @@
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1">
       <c r="A94" s="6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
@@ -5594,7 +5407,7 @@
     </row>
     <row r="95" spans="1:11" ht="14.25" customHeight="1">
       <c r="A95" s="6">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="12"/>
@@ -5609,7 +5422,7 @@
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1">
       <c r="A96" s="6">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
@@ -5624,7 +5437,7 @@
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="6">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="12"/>
@@ -5639,7 +5452,7 @@
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="6">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
@@ -5654,7 +5467,7 @@
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="6">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="12"/>
@@ -5669,7 +5482,7 @@
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="6">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
@@ -5684,7 +5497,7 @@
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
@@ -5699,7 +5512,7 @@
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="6">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
@@ -5714,7 +5527,7 @@
     </row>
     <row r="103" spans="1:11" ht="14.25" customHeight="1">
       <c r="A103" s="6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="12"/>
@@ -5729,7 +5542,7 @@
     </row>
     <row r="104" spans="1:11" ht="14.25" customHeight="1">
       <c r="A104" s="6">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
@@ -5744,7 +5557,7 @@
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="6">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="12"/>
@@ -5759,7 +5572,7 @@
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="6">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
@@ -5774,7 +5587,7 @@
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="6">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
@@ -5789,7 +5602,7 @@
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="6">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
@@ -5804,7 +5617,7 @@
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="6">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="12"/>
@@ -5819,7 +5632,7 @@
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
@@ -5834,7 +5647,7 @@
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="6">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="12"/>
@@ -5849,7 +5662,7 @@
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="6">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
@@ -5864,7 +5677,7 @@
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1">
       <c r="A113" s="6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="12"/>
@@ -5879,7 +5692,7 @@
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1">
       <c r="A114" s="6">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="12"/>
@@ -5894,7 +5707,7 @@
     </row>
     <row r="115" spans="1:11" ht="14.25" customHeight="1">
       <c r="A115" s="6">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="12"/>
@@ -5909,7 +5722,7 @@
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1">
       <c r="A116" s="6">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
@@ -5924,7 +5737,7 @@
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1">
       <c r="A117" s="6">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="12"/>
@@ -5939,7 +5752,7 @@
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1">
       <c r="A118" s="6">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
@@ -5954,7 +5767,7 @@
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1">
       <c r="A119" s="6">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="12"/>
@@ -5969,7 +5782,7 @@
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1">
       <c r="A120" s="6">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
@@ -5984,7 +5797,7 @@
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1">
       <c r="A121" s="6">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="11"/>
       <c r="C121" s="12"/>
@@ -5999,7 +5812,7 @@
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1">
       <c r="A122" s="6">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
@@ -6014,7 +5827,7 @@
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1">
       <c r="A123" s="6">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
@@ -6029,7 +5842,7 @@
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1">
       <c r="A124" s="6">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
@@ -6044,7 +5857,7 @@
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1">
       <c r="A125" s="6">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="12"/>
@@ -6059,7 +5872,7 @@
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1">
       <c r="A126" s="6">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
@@ -6074,7 +5887,7 @@
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1">
       <c r="A127" s="6">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="12"/>
@@ -6089,7 +5902,7 @@
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1">
       <c r="A128" s="6">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
@@ -6104,7 +5917,7 @@
     </row>
     <row r="129" spans="1:11" ht="14.25" customHeight="1">
       <c r="A129" s="6">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="12"/>
@@ -6119,7 +5932,7 @@
     </row>
     <row r="130" spans="1:11" ht="14.25" customHeight="1">
       <c r="A130" s="6">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
@@ -6134,7 +5947,7 @@
     </row>
     <row r="131" spans="1:11" ht="14.25" customHeight="1">
       <c r="A131" s="6">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="12"/>
@@ -6149,7 +5962,7 @@
     </row>
     <row r="132" spans="1:11" ht="14.25" customHeight="1">
       <c r="A132" s="6">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="12"/>
@@ -6164,7 +5977,7 @@
     </row>
     <row r="133" spans="1:11" ht="14.25" customHeight="1">
       <c r="A133" s="6">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="12"/>
@@ -6179,7 +5992,7 @@
     </row>
     <row r="134" spans="1:11" ht="14.25" customHeight="1">
       <c r="A134" s="6">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="12"/>
@@ -6194,7 +6007,7 @@
     </row>
     <row r="135" spans="1:11" ht="14.25" customHeight="1">
       <c r="A135" s="6">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="12"/>
@@ -6209,7 +6022,7 @@
     </row>
     <row r="136" spans="1:11" ht="14.25" customHeight="1">
       <c r="A136" s="6">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
@@ -6224,7 +6037,7 @@
     </row>
     <row r="137" spans="1:11" ht="14.25" customHeight="1">
       <c r="A137" s="6">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="12"/>
@@ -6239,7 +6052,7 @@
     </row>
     <row r="138" spans="1:11" ht="14.25" customHeight="1">
       <c r="A138" s="6">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="12"/>
@@ -6254,7 +6067,7 @@
     </row>
     <row r="139" spans="1:11" ht="14.25" customHeight="1">
       <c r="A139" s="6">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12"/>
@@ -6269,7 +6082,7 @@
     </row>
     <row r="140" spans="1:11" ht="14.25" customHeight="1">
       <c r="A140" s="6">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="12"/>
@@ -6284,7 +6097,7 @@
     </row>
     <row r="141" spans="1:11" ht="14.25" customHeight="1">
       <c r="A141" s="6">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="12"/>
@@ -6299,7 +6112,7 @@
     </row>
     <row r="142" spans="1:11" ht="14.25" customHeight="1">
       <c r="A142" s="6">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
@@ -6314,7 +6127,7 @@
     </row>
     <row r="143" spans="1:11" ht="14.25" customHeight="1">
       <c r="A143" s="6">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="12"/>
@@ -6329,7 +6142,7 @@
     </row>
     <row r="144" spans="1:11" ht="14.25" customHeight="1">
       <c r="A144" s="6">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
@@ -6344,7 +6157,7 @@
     </row>
     <row r="145" spans="1:11" ht="14.25" customHeight="1">
       <c r="A145" s="6">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="12"/>
@@ -6359,7 +6172,7 @@
     </row>
     <row r="146" spans="1:11" ht="14.25" customHeight="1">
       <c r="A146" s="6">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
@@ -6374,7 +6187,7 @@
     </row>
     <row r="147" spans="1:11" ht="14.25" customHeight="1">
       <c r="A147" s="6">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12"/>
@@ -6389,7 +6202,7 @@
     </row>
     <row r="148" spans="1:11" ht="14.25" customHeight="1">
       <c r="A148" s="6">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="12"/>
@@ -6404,7 +6217,7 @@
     </row>
     <row r="149" spans="1:11" ht="14.25" customHeight="1">
       <c r="A149" s="6">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="12"/>
@@ -6419,7 +6232,7 @@
     </row>
     <row r="150" spans="1:11" ht="14.25" customHeight="1">
       <c r="A150" s="6">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="12"/>
@@ -6434,7 +6247,7 @@
     </row>
     <row r="151" spans="1:11" ht="14.25" customHeight="1">
       <c r="A151" s="6">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="12"/>
@@ -6449,7 +6262,7 @@
     </row>
     <row r="152" spans="1:11" ht="14.25" customHeight="1">
       <c r="A152" s="6">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="12"/>
@@ -6464,7 +6277,7 @@
     </row>
     <row r="153" spans="1:11" ht="14.25" customHeight="1">
       <c r="A153" s="6">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="12"/>
@@ -6479,7 +6292,7 @@
     </row>
     <row r="154" spans="1:11" ht="14.25" customHeight="1">
       <c r="A154" s="6">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
@@ -6494,7 +6307,7 @@
     </row>
     <row r="155" spans="1:11" ht="14.25" customHeight="1">
       <c r="A155" s="6">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="12"/>
@@ -6509,7 +6322,7 @@
     </row>
     <row r="156" spans="1:11" ht="14.25" customHeight="1">
       <c r="A156" s="6">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="12"/>
@@ -6524,7 +6337,7 @@
     </row>
     <row r="157" spans="1:11" ht="14.25" customHeight="1">
       <c r="A157" s="6">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="12"/>
@@ -6539,7 +6352,7 @@
     </row>
     <row r="158" spans="1:11" ht="14.25" customHeight="1">
       <c r="A158" s="6">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="12"/>
@@ -6554,7 +6367,7 @@
     </row>
     <row r="159" spans="1:11" ht="14.25" customHeight="1">
       <c r="A159" s="6">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="12"/>
@@ -6569,7 +6382,7 @@
     </row>
     <row r="160" spans="1:11" ht="14.25" customHeight="1">
       <c r="A160" s="6">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
@@ -6584,7 +6397,7 @@
     </row>
     <row r="161" spans="1:11" ht="14.25" customHeight="1">
       <c r="A161" s="6">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="12"/>
@@ -6599,7 +6412,7 @@
     </row>
     <row r="162" spans="1:11" ht="14.25" customHeight="1">
       <c r="A162" s="6">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="12"/>
@@ -6614,7 +6427,7 @@
     </row>
     <row r="163" spans="1:11" ht="14.25" customHeight="1">
       <c r="A163" s="6">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="12"/>
@@ -6629,7 +6442,7 @@
     </row>
     <row r="164" spans="1:11" ht="14.25" customHeight="1">
       <c r="A164" s="6">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="12"/>
@@ -6644,7 +6457,7 @@
     </row>
     <row r="165" spans="1:11" ht="14.25" customHeight="1">
       <c r="A165" s="6">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="12"/>
@@ -6659,7 +6472,7 @@
     </row>
     <row r="166" spans="1:11" ht="14.25" customHeight="1">
       <c r="A166" s="6">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="12"/>
@@ -6674,7 +6487,7 @@
     </row>
     <row r="167" spans="1:11" ht="14.25" customHeight="1">
       <c r="A167" s="6">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="12"/>
@@ -6689,7 +6502,7 @@
     </row>
     <row r="168" spans="1:11" ht="14.25" customHeight="1">
       <c r="A168" s="6">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
@@ -6704,7 +6517,7 @@
     </row>
     <row r="169" spans="1:11" ht="14.25" customHeight="1">
       <c r="A169" s="6">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="12"/>
@@ -6719,7 +6532,7 @@
     </row>
     <row r="170" spans="1:11" ht="14.25" customHeight="1">
       <c r="A170" s="6">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="12"/>
@@ -6734,7 +6547,7 @@
     </row>
     <row r="171" spans="1:11" ht="14.25" customHeight="1">
       <c r="A171" s="6">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="12"/>
@@ -6749,7 +6562,7 @@
     </row>
     <row r="172" spans="1:11" ht="14.25" customHeight="1">
       <c r="A172" s="6">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="12"/>
@@ -6764,7 +6577,7 @@
     </row>
     <row r="173" spans="1:11" ht="14.25" customHeight="1">
       <c r="A173" s="6">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="12"/>
@@ -6779,7 +6592,7 @@
     </row>
     <row r="174" spans="1:11" ht="14.25" customHeight="1">
       <c r="A174" s="6">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="12"/>
@@ -6794,7 +6607,7 @@
     </row>
     <row r="175" spans="1:11" ht="14.25" customHeight="1">
       <c r="A175" s="6">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="12"/>
@@ -6809,7 +6622,7 @@
     </row>
     <row r="176" spans="1:11" ht="14.25" customHeight="1">
       <c r="A176" s="6">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
@@ -6824,7 +6637,7 @@
     </row>
     <row r="177" spans="1:11" ht="14.25" customHeight="1">
       <c r="A177" s="6">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="12"/>
@@ -6839,7 +6652,7 @@
     </row>
     <row r="178" spans="1:11" ht="14.25" customHeight="1">
       <c r="A178" s="6">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="12"/>
@@ -6854,7 +6667,7 @@
     </row>
     <row r="179" spans="1:11" ht="14.25" customHeight="1">
       <c r="A179" s="6">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="12"/>
@@ -6869,7 +6682,7 @@
     </row>
     <row r="180" spans="1:11" ht="14.25" customHeight="1">
       <c r="A180" s="6">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="12"/>
@@ -6884,7 +6697,7 @@
     </row>
     <row r="181" spans="1:11" ht="14.25" customHeight="1">
       <c r="A181" s="6">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="12"/>
@@ -6899,7 +6712,7 @@
     </row>
     <row r="182" spans="1:11" ht="14.25" customHeight="1">
       <c r="A182" s="6">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="12"/>
@@ -6914,7 +6727,7 @@
     </row>
     <row r="183" spans="1:11" ht="14.25" customHeight="1">
       <c r="A183" s="6">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="12"/>
@@ -6929,7 +6742,7 @@
     </row>
     <row r="184" spans="1:11" ht="14.25" customHeight="1">
       <c r="A184" s="6">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="12"/>
@@ -6944,7 +6757,7 @@
     </row>
     <row r="185" spans="1:11" ht="14.25" customHeight="1">
       <c r="A185" s="6">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="12"/>
@@ -6959,7 +6772,7 @@
     </row>
     <row r="186" spans="1:11" ht="14.25" customHeight="1">
       <c r="A186" s="6">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="12"/>
@@ -6974,7 +6787,7 @@
     </row>
     <row r="187" spans="1:11" ht="14.25" customHeight="1">
       <c r="A187" s="6">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="12"/>
@@ -6989,7 +6802,7 @@
     </row>
     <row r="188" spans="1:11" ht="14.25" customHeight="1">
       <c r="A188" s="6">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="12"/>
@@ -7004,7 +6817,7 @@
     </row>
     <row r="189" spans="1:11" ht="14.25" customHeight="1">
       <c r="A189" s="6">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="12"/>
@@ -7019,7 +6832,7 @@
     </row>
     <row r="190" spans="1:11" ht="14.25" customHeight="1">
       <c r="A190" s="6">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="12"/>
@@ -7034,7 +6847,7 @@
     </row>
     <row r="191" spans="1:11" ht="14.25" customHeight="1">
       <c r="A191" s="6">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="12"/>
@@ -7049,7 +6862,7 @@
     </row>
     <row r="192" spans="1:11" ht="14.25" customHeight="1">
       <c r="A192" s="6">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="12"/>
@@ -7064,7 +6877,7 @@
     </row>
     <row r="193" spans="1:11" ht="14.25" customHeight="1">
       <c r="A193" s="6">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="12"/>
@@ -7079,7 +6892,7 @@
     </row>
     <row r="194" spans="1:11" ht="14.25" customHeight="1">
       <c r="A194" s="6">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="12"/>
@@ -7094,7 +6907,7 @@
     </row>
     <row r="195" spans="1:11" ht="14.25" customHeight="1">
       <c r="A195" s="6">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="12"/>
@@ -7109,7 +6922,7 @@
     </row>
     <row r="196" spans="1:11" ht="14.25" customHeight="1">
       <c r="A196" s="6">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="12"/>
@@ -7124,7 +6937,7 @@
     </row>
     <row r="197" spans="1:11" ht="14.25" customHeight="1">
       <c r="A197" s="6">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="12"/>
@@ -7139,7 +6952,7 @@
     </row>
     <row r="198" spans="1:11" ht="14.25" customHeight="1">
       <c r="A198" s="6">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="12"/>
@@ -7154,7 +6967,7 @@
     </row>
     <row r="199" spans="1:11" ht="14.25" customHeight="1">
       <c r="A199" s="6">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="12"/>
@@ -7169,7 +6982,7 @@
     </row>
     <row r="200" spans="1:11" ht="14.25" customHeight="1">
       <c r="A200" s="6">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="12"/>
@@ -7184,7 +6997,7 @@
     </row>
     <row r="201" spans="1:11" ht="14.25" customHeight="1">
       <c r="A201" s="6">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="12"/>
@@ -7199,7 +7012,7 @@
     </row>
     <row r="202" spans="1:11" ht="14.25" customHeight="1">
       <c r="A202" s="6">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="12"/>
@@ -7214,7 +7027,7 @@
     </row>
     <row r="203" spans="1:11" ht="14.25" customHeight="1">
       <c r="A203" s="6">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="12"/>
@@ -7228,34 +7041,30 @@
       <c r="K203" s="13"/>
     </row>
     <row r="204" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A204" s="6">
-        <v>199</v>
-      </c>
-      <c r="B204" s="11"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
-      <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
-      <c r="J204" s="11"/>
-      <c r="K204" s="13"/>
+      <c r="A204" s="15"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="16"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="16"/>
+      <c r="I204" s="16"/>
+      <c r="J204" s="16"/>
+      <c r="K204" s="16"/>
     </row>
     <row r="205" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A205" s="6">
-        <v>200</v>
-      </c>
-      <c r="B205" s="11"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="11"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="11"/>
-      <c r="K205" s="13"/>
+      <c r="A205" s="15"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
+      <c r="I205" s="16"/>
+      <c r="J205" s="16"/>
+      <c r="K205" s="16"/>
     </row>
     <row r="206" spans="1:11" ht="14.25" customHeight="1">
       <c r="A206" s="15"/>
@@ -9832,30 +9641,30 @@
       <c r="K403" s="16"/>
     </row>
     <row r="404" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A404" s="15"/>
-      <c r="B404" s="16"/>
-      <c r="C404" s="16"/>
-      <c r="D404" s="17"/>
-      <c r="E404" s="16"/>
-      <c r="F404" s="16"/>
-      <c r="G404" s="16"/>
-      <c r="H404" s="16"/>
-      <c r="I404" s="16"/>
-      <c r="J404" s="16"/>
-      <c r="K404" s="16"/>
+      <c r="A404" s="18"/>
+      <c r="B404" s="19"/>
+      <c r="C404" s="19"/>
+      <c r="D404" s="19"/>
+      <c r="E404" s="19"/>
+      <c r="F404" s="19"/>
+      <c r="G404" s="19"/>
+      <c r="H404" s="19"/>
+      <c r="I404" s="19"/>
+      <c r="J404" s="19"/>
+      <c r="K404" s="19"/>
     </row>
     <row r="405" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A405" s="15"/>
-      <c r="B405" s="16"/>
-      <c r="C405" s="16"/>
-      <c r="D405" s="17"/>
-      <c r="E405" s="16"/>
-      <c r="F405" s="16"/>
-      <c r="G405" s="16"/>
-      <c r="H405" s="16"/>
-      <c r="I405" s="16"/>
-      <c r="J405" s="16"/>
-      <c r="K405" s="16"/>
+      <c r="A405" s="18"/>
+      <c r="B405" s="19"/>
+      <c r="C405" s="19"/>
+      <c r="D405" s="19"/>
+      <c r="E405" s="19"/>
+      <c r="F405" s="19"/>
+      <c r="G405" s="19"/>
+      <c r="H405" s="19"/>
+      <c r="I405" s="19"/>
+      <c r="J405" s="19"/>
+      <c r="K405" s="19"/>
     </row>
     <row r="406" spans="1:11" ht="14.25" customHeight="1">
       <c r="A406" s="18"/>
@@ -17566,37 +17375,9 @@
       <c r="J998" s="19"/>
       <c r="K998" s="19"/>
     </row>
-    <row r="999" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A999" s="18"/>
-      <c r="B999" s="19"/>
-      <c r="C999" s="19"/>
-      <c r="D999" s="19"/>
-      <c r="E999" s="19"/>
-      <c r="F999" s="19"/>
-      <c r="G999" s="19"/>
-      <c r="H999" s="19"/>
-      <c r="I999" s="19"/>
-      <c r="J999" s="19"/>
-      <c r="K999" s="19"/>
-    </row>
-    <row r="1000" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A1000" s="18"/>
-      <c r="B1000" s="19"/>
-      <c r="C1000" s="19"/>
-      <c r="D1000" s="19"/>
-      <c r="E1000" s="19"/>
-      <c r="F1000" s="19"/>
-      <c r="G1000" s="19"/>
-      <c r="H1000" s="19"/>
-      <c r="I1000" s="19"/>
-      <c r="J1000" s="19"/>
-      <c r="K1000" s="19"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -17608,19 +17389,19 @@
           <x14:formula1>
             <xm:f>'Lista desplegable'!$C$2:$C$1117</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D205</xm:sqref>
+          <xm:sqref>D4:D203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$B$2:$B$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:C205</xm:sqref>
+          <xm:sqref>C4:C203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Lista desplegable'!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J205</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17630,12 +17411,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EDAA99-3185-47A7-BDEA-165E01ABD3EC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17660,10 +17522,10 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1">
       <c r="B1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -17672,5695 +17534,5695 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="14.25" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="14.25" customHeight="1">
       <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1">
       <c r="B4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.25" customHeight="1">
       <c r="B5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="14.25" customHeight="1">
       <c r="B6" s="21" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.25" customHeight="1">
       <c r="B7" s="21" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="14.25" customHeight="1">
       <c r="B8" s="21" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="14.25" customHeight="1">
       <c r="B9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="14.25" customHeight="1">
       <c r="B10" s="21" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="14.25" customHeight="1">
       <c r="B11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1">
       <c r="B12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="14.25" customHeight="1">
       <c r="B13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="14.25" customHeight="1">
       <c r="B14" s="21" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="14.25" customHeight="1">
       <c r="B15" s="21" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="14.25" customHeight="1">
       <c r="B16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="14.25" customHeight="1">
       <c r="B17" s="21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="14.25" customHeight="1">
       <c r="B18" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="14.25" customHeight="1">
       <c r="B19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.25" customHeight="1">
       <c r="B20" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.25" customHeight="1">
       <c r="B21" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25" customHeight="1">
       <c r="B22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="14.25" customHeight="1">
       <c r="B23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.25" customHeight="1">
       <c r="B24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.25" customHeight="1">
       <c r="B25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="14.25" customHeight="1">
       <c r="B26" s="21" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="14.25" customHeight="1">
       <c r="B27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="14.25" customHeight="1">
       <c r="B28" s="21" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="14.25" customHeight="1">
       <c r="B29" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="14.25" customHeight="1">
       <c r="B30" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="14.25" customHeight="1">
       <c r="B31" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="14.25" customHeight="1">
       <c r="B32" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.25" customHeight="1">
       <c r="B33" s="21" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="14.25" customHeight="1">
       <c r="B34" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="14.25" customHeight="1">
       <c r="C35" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="14.25" customHeight="1">
       <c r="C36" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="14.25" customHeight="1">
       <c r="C37" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="14.25" customHeight="1">
       <c r="C38" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="14.25" customHeight="1">
       <c r="C39" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="14.25" customHeight="1">
       <c r="C40" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="14.25" customHeight="1">
       <c r="C41" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="14.25" customHeight="1">
       <c r="C42" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="14.25" customHeight="1">
       <c r="C43" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="14.25" customHeight="1">
       <c r="C44" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="14.25" customHeight="1">
       <c r="C45" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="14.25" customHeight="1">
       <c r="C46" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="14.25" customHeight="1">
       <c r="C47" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="14.25" customHeight="1">
       <c r="C48" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="14.25" customHeight="1">
       <c r="C49" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="14.25" customHeight="1">
       <c r="C50" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="14.25" customHeight="1">
       <c r="C51" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="3:3" ht="14.25" customHeight="1">
       <c r="C52" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="3:3" ht="14.25" customHeight="1">
       <c r="C53" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.25" customHeight="1">
       <c r="C54" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="3:3" ht="14.25" customHeight="1">
       <c r="C55" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="3:3" ht="14.25" customHeight="1">
       <c r="C56" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="14.25" customHeight="1">
       <c r="C57" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="3:3" ht="14.25" customHeight="1">
       <c r="C58" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="3:3" ht="14.25" customHeight="1">
       <c r="C59" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="14.25" customHeight="1">
       <c r="C60" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="3:3" ht="14.25" customHeight="1">
       <c r="C61" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="3:3" ht="14.25" customHeight="1">
       <c r="C62" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="14.25" customHeight="1">
       <c r="C63" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="3:3" ht="14.25" customHeight="1">
       <c r="C64" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="3:3" ht="14.25" customHeight="1">
       <c r="C65" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="14.25" customHeight="1">
       <c r="C66" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="3:3" ht="14.25" customHeight="1">
       <c r="C67" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="14.25" customHeight="1">
       <c r="C68" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="3:3" ht="14.25" customHeight="1">
       <c r="C69" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="14.25" customHeight="1">
       <c r="C70" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="3:3" ht="14.25" customHeight="1">
       <c r="C71" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="3:3" ht="14.25" customHeight="1">
       <c r="C72" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="3:3" ht="14.25" customHeight="1">
       <c r="C73" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="3:3" ht="14.25" customHeight="1">
       <c r="C74" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="3:3" ht="14.25" customHeight="1">
       <c r="C75" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="3:3" ht="14.25" customHeight="1">
       <c r="C76" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="3:3" ht="14.25" customHeight="1">
       <c r="C77" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="3:3" ht="14.25" customHeight="1">
       <c r="C78" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="3:3" ht="14.25" customHeight="1">
       <c r="C79" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="3:3" ht="14.25" customHeight="1">
       <c r="C80" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="3:3" ht="14.25" customHeight="1">
       <c r="C81" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="3:3" ht="14.25" customHeight="1">
       <c r="C82" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="3:3" ht="14.25" customHeight="1">
       <c r="C83" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="3:3" ht="14.25" customHeight="1">
       <c r="C84" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="3:3" ht="14.25" customHeight="1">
       <c r="C85" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="3:3" ht="14.25" customHeight="1">
       <c r="C86" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="3:3" ht="14.25" customHeight="1">
       <c r="C87" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="3:3" ht="14.25" customHeight="1">
       <c r="C88" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="3:3" ht="14.25" customHeight="1">
       <c r="C89" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="3:3" ht="14.25" customHeight="1">
       <c r="C90" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="3:3" ht="14.25" customHeight="1">
       <c r="C91" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="3:3" ht="14.25" customHeight="1">
       <c r="C92" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="3:3" ht="14.25" customHeight="1">
       <c r="C93" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="3:3" ht="14.25" customHeight="1">
       <c r="C94" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="3:3" ht="14.25" customHeight="1">
       <c r="C95" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="3:3" ht="14.25" customHeight="1">
       <c r="C96" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="3:3" ht="14.25" customHeight="1">
       <c r="C97" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="3:3" ht="14.25" customHeight="1">
       <c r="C98" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="3:3" ht="14.25" customHeight="1">
       <c r="C99" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="3:3" ht="14.25" customHeight="1">
       <c r="C100" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="14.25" customHeight="1">
       <c r="C101" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="3:3" ht="14.25" customHeight="1">
       <c r="C102" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="3:3" ht="14.25" customHeight="1">
       <c r="C103" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="3:3" ht="14.25" customHeight="1">
       <c r="C104" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="3:3" ht="14.25" customHeight="1">
       <c r="C105" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="3:3" ht="14.25" customHeight="1">
       <c r="C106" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="14.25" customHeight="1">
       <c r="C107" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="3:3" ht="14.25" customHeight="1">
       <c r="C108" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="3:3" ht="14.25" customHeight="1">
       <c r="C109" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="3:3" ht="14.25" customHeight="1">
       <c r="C110" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="3:3" ht="14.25" customHeight="1">
       <c r="C111" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="3:3" ht="14.25" customHeight="1">
       <c r="C112" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="14.25" customHeight="1">
       <c r="C113" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="14.25" customHeight="1">
       <c r="C114" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="3:3" ht="14.25" customHeight="1">
       <c r="C115" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="3:3" ht="14.25" customHeight="1">
       <c r="C116" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="3:3" ht="14.25" customHeight="1">
       <c r="C117" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="3:3" ht="14.25" customHeight="1">
       <c r="C118" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="3:3" ht="14.25" customHeight="1">
       <c r="C119" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="3:3" ht="14.25" customHeight="1">
       <c r="C120" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="3:3" ht="14.25" customHeight="1">
       <c r="C121" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="14.25" customHeight="1">
       <c r="C122" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="3:3" ht="14.25" customHeight="1">
       <c r="C123" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="3:3" ht="14.25" customHeight="1">
       <c r="C124" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="3:3" ht="14.25" customHeight="1">
       <c r="C125" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="3:3" ht="14.25" customHeight="1">
       <c r="C126" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="3:3" ht="14.25" customHeight="1">
       <c r="C127" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="3:3" ht="14.25" customHeight="1">
       <c r="C128" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="3:3" ht="14.25" customHeight="1">
       <c r="C129" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="3:3" ht="14.25" customHeight="1">
       <c r="C130" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="3:3" ht="14.25" customHeight="1">
       <c r="C131" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="3:3" ht="14.25" customHeight="1">
       <c r="C132" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="3:3" ht="14.25" customHeight="1">
       <c r="C133" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="3:3" ht="14.25" customHeight="1">
       <c r="C134" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="3:3" ht="14.25" customHeight="1">
       <c r="C135" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="3:3" ht="14.25" customHeight="1">
       <c r="C136" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="3:3" ht="14.25" customHeight="1">
       <c r="C137" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="3:3" ht="14.25" customHeight="1">
       <c r="C138" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="3:3" ht="14.25" customHeight="1">
       <c r="C139" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="3:3" ht="14.25" customHeight="1">
       <c r="C140" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="3:3" ht="14.25" customHeight="1">
       <c r="C141" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="3:3" ht="14.25" customHeight="1">
       <c r="C142" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="3:3" ht="14.25" customHeight="1">
       <c r="C143" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="3:3" ht="14.25" customHeight="1">
       <c r="C144" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="3:3" ht="14.25" customHeight="1">
       <c r="C145" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="3:3" ht="14.25" customHeight="1">
       <c r="C146" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="3:3" ht="14.25" customHeight="1">
       <c r="C147" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="3:3" ht="14.25" customHeight="1">
       <c r="C148" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="3:3" ht="14.25" customHeight="1">
       <c r="C149" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="3:3" ht="14.25" customHeight="1">
       <c r="C150" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="3:3" ht="14.25" customHeight="1">
       <c r="C151" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="3:3" ht="14.25" customHeight="1">
       <c r="C152" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="3:3" ht="14.25" customHeight="1">
       <c r="C153" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="3:3" ht="14.25" customHeight="1">
       <c r="C154" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="3:3" ht="14.25" customHeight="1">
       <c r="C155" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="3:3" ht="14.25" customHeight="1">
       <c r="C156" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="3:3" ht="14.25" customHeight="1">
       <c r="C157" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="3:3" ht="14.25" customHeight="1">
       <c r="C158" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="3:3" ht="14.25" customHeight="1">
       <c r="C159" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="3:3" ht="14.25" customHeight="1">
       <c r="C160" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="3:3" ht="14.25" customHeight="1">
       <c r="C161" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="3:3" ht="14.25" customHeight="1">
       <c r="C162" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="3:3" ht="14.25" customHeight="1">
       <c r="C163" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="3:3" ht="14.25" customHeight="1">
       <c r="C164" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="3:3" ht="14.25" customHeight="1">
       <c r="C165" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="3:3" ht="14.25" customHeight="1">
       <c r="C166" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="3:3" ht="14.25" customHeight="1">
       <c r="C167" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="3:3" ht="14.25" customHeight="1">
       <c r="C168" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="3:3" ht="14.25" customHeight="1">
       <c r="C169" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="170" spans="3:3" ht="14.25" customHeight="1">
       <c r="C170" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="3:3" ht="14.25" customHeight="1">
       <c r="C171" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="3:3" ht="14.25" customHeight="1">
       <c r="C172" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="3:3" ht="14.25" customHeight="1">
       <c r="C173" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="3:3" ht="14.25" customHeight="1">
       <c r="C174" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="3:3" ht="14.25" customHeight="1">
       <c r="C175" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="3:3" ht="14.25" customHeight="1">
       <c r="C176" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="3:3" ht="14.25" customHeight="1">
       <c r="C177" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="3:3" ht="14.25" customHeight="1">
       <c r="C178" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="14.25" customHeight="1">
       <c r="C179" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="3:3" ht="14.25" customHeight="1">
       <c r="C180" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="3:3" ht="14.25" customHeight="1">
       <c r="C181" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="14.25" customHeight="1">
       <c r="C182" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="3:3" ht="14.25" customHeight="1">
       <c r="C183" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="3:3" ht="14.25" customHeight="1">
       <c r="C184" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="3:3" ht="14.25" customHeight="1">
       <c r="C185" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="3:3" ht="14.25" customHeight="1">
       <c r="C186" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="3:3" ht="14.25" customHeight="1">
       <c r="C187" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="14.25" customHeight="1">
       <c r="C188" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="3:3" ht="14.25" customHeight="1">
       <c r="C189" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="3:3" ht="14.25" customHeight="1">
       <c r="C190" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="3:3" ht="14.25" customHeight="1">
       <c r="C191" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="3:3" ht="14.25" customHeight="1">
       <c r="C192" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="3:3" ht="14.25" customHeight="1">
       <c r="C193" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="3:3" ht="14.25" customHeight="1">
       <c r="C194" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="3:3" ht="14.25" customHeight="1">
       <c r="C195" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="3:3" ht="14.25" customHeight="1">
       <c r="C196" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="14.25" customHeight="1">
       <c r="C197" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="3:3" ht="14.25" customHeight="1">
       <c r="C198" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="3:3" ht="14.25" customHeight="1">
       <c r="C199" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="14.25" customHeight="1">
       <c r="C200" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="3:3" ht="14.25" customHeight="1">
       <c r="C201" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="3:3" ht="14.25" customHeight="1">
       <c r="C202" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="14.25" customHeight="1">
       <c r="C203" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="3:3" ht="14.25" customHeight="1">
       <c r="C204" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="3:3" ht="14.25" customHeight="1">
       <c r="C205" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="3:3" ht="14.25" customHeight="1">
       <c r="C206" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="3:3" ht="14.25" customHeight="1">
       <c r="C207" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="3:3" ht="14.25" customHeight="1">
       <c r="C208" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="3:3" ht="14.25" customHeight="1">
       <c r="C209" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="3:3" ht="14.25" customHeight="1">
       <c r="C210" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="3:3" ht="14.25" customHeight="1">
       <c r="C211" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="212" spans="3:3" ht="14.25" customHeight="1">
       <c r="C212" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="3:3" ht="14.25" customHeight="1">
       <c r="C213" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="3:3" ht="14.25" customHeight="1">
       <c r="C214" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="215" spans="3:3" ht="14.25" customHeight="1">
       <c r="C215" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="216" spans="3:3" ht="14.25" customHeight="1">
       <c r="C216" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="217" spans="3:3" ht="14.25" customHeight="1">
       <c r="C217" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="218" spans="3:3" ht="14.25" customHeight="1">
       <c r="C218" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="3:3" ht="14.25" customHeight="1">
       <c r="C219" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="220" spans="3:3" ht="14.25" customHeight="1">
       <c r="C220" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="3:3" ht="14.25" customHeight="1">
       <c r="C221" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="222" spans="3:3" ht="14.25" customHeight="1">
       <c r="C222" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="223" spans="3:3" ht="14.25" customHeight="1">
       <c r="C223" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="3:3" ht="14.25" customHeight="1">
       <c r="C224" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="225" spans="3:3" ht="14.25" customHeight="1">
       <c r="C225" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="226" spans="3:3" ht="14.25" customHeight="1">
       <c r="C226" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="14.25" customHeight="1">
       <c r="C227" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="3:3" ht="14.25" customHeight="1">
       <c r="C228" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="229" spans="3:3" ht="14.25" customHeight="1">
       <c r="C229" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="14.25" customHeight="1">
       <c r="C230" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" spans="3:3" ht="14.25" customHeight="1">
       <c r="C231" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="3:3" ht="14.25" customHeight="1">
       <c r="C232" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="14.25" customHeight="1">
       <c r="C233" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" spans="3:3" ht="14.25" customHeight="1">
       <c r="C234" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="3:3" ht="14.25" customHeight="1">
       <c r="C235" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="14.25" customHeight="1">
       <c r="C236" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="237" spans="3:3" ht="14.25" customHeight="1">
       <c r="C237" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="238" spans="3:3" ht="14.25" customHeight="1">
       <c r="C238" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" spans="3:3" ht="14.25" customHeight="1">
       <c r="C239" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="3:3" ht="14.25" customHeight="1">
       <c r="C240" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="241" spans="3:3" ht="14.25" customHeight="1">
       <c r="C241" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="242" spans="3:3" ht="14.25" customHeight="1">
       <c r="C242" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="3:3" ht="14.25" customHeight="1">
       <c r="C243" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="3:3" ht="14.25" customHeight="1">
       <c r="C244" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" spans="3:3" ht="14.25" customHeight="1">
       <c r="C245" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="3:3" ht="14.25" customHeight="1">
       <c r="C246" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" spans="3:3" ht="14.25" customHeight="1">
       <c r="C247" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="3:3" ht="14.25" customHeight="1">
       <c r="C248" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="3:3" ht="14.25" customHeight="1">
       <c r="C249" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="3:3" ht="14.25" customHeight="1">
       <c r="C250" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="251" spans="3:3" ht="14.25" customHeight="1">
       <c r="C251" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="252" spans="3:3" ht="14.25" customHeight="1">
       <c r="C252" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="253" spans="3:3" ht="14.25" customHeight="1">
       <c r="C253" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="3:3" ht="14.25" customHeight="1">
       <c r="C254" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="3:3" ht="14.25" customHeight="1">
       <c r="C255" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" spans="3:3" ht="14.25" customHeight="1">
       <c r="C256" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="3:3" ht="14.25" customHeight="1">
       <c r="C257" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="3:3" ht="14.25" customHeight="1">
       <c r="C258" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="3:3" ht="14.25" customHeight="1">
       <c r="C259" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="260" spans="3:3" ht="14.25" customHeight="1">
       <c r="C260" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261" spans="3:3" ht="14.25" customHeight="1">
       <c r="C261" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="262" spans="3:3" ht="14.25" customHeight="1">
       <c r="C262" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="263" spans="3:3" ht="14.25" customHeight="1">
       <c r="C263" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="3:3" ht="14.25" customHeight="1">
       <c r="C264" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="265" spans="3:3" ht="14.25" customHeight="1">
       <c r="C265" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="3:3" ht="14.25" customHeight="1">
       <c r="C266" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="3:3" ht="14.25" customHeight="1">
       <c r="C267" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="3:3" ht="14.25" customHeight="1">
       <c r="C268" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="3:3" ht="14.25" customHeight="1">
       <c r="C269" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="3:3" ht="14.25" customHeight="1">
       <c r="C270" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="3:3" ht="14.25" customHeight="1">
       <c r="C271" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="3:3" ht="14.25" customHeight="1">
       <c r="C272" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="3:3" ht="14.25" customHeight="1">
       <c r="C273" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="3:3" ht="14.25" customHeight="1">
       <c r="C274" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="3:3" ht="14.25" customHeight="1">
       <c r="C275" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="3:3" ht="14.25" customHeight="1">
       <c r="C276" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="3:3" ht="14.25" customHeight="1">
       <c r="C277" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="3:3" ht="14.25" customHeight="1">
       <c r="C278" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="3:3" ht="14.25" customHeight="1">
       <c r="C279" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="3:3" ht="14.25" customHeight="1">
       <c r="C280" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="281" spans="3:3" ht="14.25" customHeight="1">
       <c r="C281" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="3:3" ht="14.25" customHeight="1">
       <c r="C282" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="283" spans="3:3" ht="14.25" customHeight="1">
       <c r="C283" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="3:3" ht="14.25" customHeight="1">
       <c r="C284" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="3:3" ht="14.25" customHeight="1">
       <c r="C285" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="3:3" ht="14.25" customHeight="1">
       <c r="C286" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="3:3" ht="14.25" customHeight="1">
       <c r="C287" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="288" spans="3:3" ht="14.25" customHeight="1">
       <c r="C288" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="3:3" ht="14.25" customHeight="1">
       <c r="C289" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="3:3" ht="14.25" customHeight="1">
       <c r="C290" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="3:3" ht="14.25" customHeight="1">
       <c r="C291" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="292" spans="3:3" ht="14.25" customHeight="1">
       <c r="C292" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="293" spans="3:3" ht="14.25" customHeight="1">
       <c r="C293" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="3:3" ht="14.25" customHeight="1">
       <c r="C294" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="295" spans="3:3" ht="14.25" customHeight="1">
       <c r="C295" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="296" spans="3:3" ht="14.25" customHeight="1">
       <c r="C296" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="297" spans="3:3" ht="14.25" customHeight="1">
       <c r="C297" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="3:3" ht="14.25" customHeight="1">
       <c r="C298" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="299" spans="3:3" ht="14.25" customHeight="1">
       <c r="C299" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300" spans="3:3" ht="14.25" customHeight="1">
       <c r="C300" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="301" spans="3:3" ht="14.25" customHeight="1">
       <c r="C301" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="302" spans="3:3" ht="14.25" customHeight="1">
       <c r="C302" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="303" spans="3:3" ht="14.25" customHeight="1">
       <c r="C303" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="3:3" ht="14.25" customHeight="1">
       <c r="C304" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="305" spans="3:3" ht="14.25" customHeight="1">
       <c r="C305" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="3:3" ht="14.25" customHeight="1">
       <c r="C306" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="3:3" ht="14.25" customHeight="1">
       <c r="C307" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="3:3" ht="14.25" customHeight="1">
       <c r="C308" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="309" spans="3:3" ht="14.25" customHeight="1">
       <c r="C309" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="3:3" ht="14.25" customHeight="1">
       <c r="C310" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="311" spans="3:3" ht="14.25" customHeight="1">
       <c r="C311" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="312" spans="3:3" ht="14.25" customHeight="1">
       <c r="C312" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="313" spans="3:3" ht="14.25" customHeight="1">
       <c r="C313" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="314" spans="3:3" ht="14.25" customHeight="1">
       <c r="C314" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="315" spans="3:3" ht="14.25" customHeight="1">
       <c r="C315" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="316" spans="3:3" ht="14.25" customHeight="1">
       <c r="C316" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="317" spans="3:3" ht="14.25" customHeight="1">
       <c r="C317" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="318" spans="3:3" ht="14.25" customHeight="1">
       <c r="C318" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="319" spans="3:3" ht="14.25" customHeight="1">
       <c r="C319" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="3:3" ht="14.25" customHeight="1">
       <c r="C320" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="321" spans="3:3" ht="14.25" customHeight="1">
       <c r="C321" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="322" spans="3:3" ht="14.25" customHeight="1">
       <c r="C322" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="323" spans="3:3" ht="14.25" customHeight="1">
       <c r="C323" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="324" spans="3:3" ht="14.25" customHeight="1">
       <c r="C324" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="325" spans="3:3" ht="14.25" customHeight="1">
       <c r="C325" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="326" spans="3:3" ht="14.25" customHeight="1">
       <c r="C326" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="327" spans="3:3" ht="14.25" customHeight="1">
       <c r="C327" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="328" spans="3:3" ht="14.25" customHeight="1">
       <c r="C328" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="329" spans="3:3" ht="14.25" customHeight="1">
       <c r="C329" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="330" spans="3:3" ht="14.25" customHeight="1">
       <c r="C330" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="331" spans="3:3" ht="14.25" customHeight="1">
       <c r="C331" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="332" spans="3:3" ht="14.25" customHeight="1">
       <c r="C332" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="333" spans="3:3" ht="14.25" customHeight="1">
       <c r="C333" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="334" spans="3:3" ht="14.25" customHeight="1">
       <c r="C334" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="335" spans="3:3" ht="14.25" customHeight="1">
       <c r="C335" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="336" spans="3:3" ht="14.25" customHeight="1">
       <c r="C336" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="337" spans="3:3" ht="14.25" customHeight="1">
       <c r="C337" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="338" spans="3:3" ht="14.25" customHeight="1">
       <c r="C338" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="339" spans="3:3" ht="14.25" customHeight="1">
       <c r="C339" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="340" spans="3:3" ht="14.25" customHeight="1">
       <c r="C340" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="341" spans="3:3" ht="14.25" customHeight="1">
       <c r="C341" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="342" spans="3:3" ht="14.25" customHeight="1">
       <c r="C342" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="343" spans="3:3" ht="14.25" customHeight="1">
       <c r="C343" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="344" spans="3:3" ht="14.25" customHeight="1">
       <c r="C344" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="345" spans="3:3" ht="14.25" customHeight="1">
       <c r="C345" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346" spans="3:3" ht="14.25" customHeight="1">
       <c r="C346" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="347" spans="3:3" ht="14.25" customHeight="1">
       <c r="C347" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="348" spans="3:3" ht="14.25" customHeight="1">
       <c r="C348" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" spans="3:3" ht="14.25" customHeight="1">
       <c r="C349" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="350" spans="3:3" ht="14.25" customHeight="1">
       <c r="C350" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="351" spans="3:3" ht="14.25" customHeight="1">
       <c r="C351" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="352" spans="3:3" ht="14.25" customHeight="1">
       <c r="C352" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="353" spans="3:3" ht="14.25" customHeight="1">
       <c r="C353" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="354" spans="3:3" ht="14.25" customHeight="1">
       <c r="C354" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="355" spans="3:3" ht="14.25" customHeight="1">
       <c r="C355" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="356" spans="3:3" ht="14.25" customHeight="1">
       <c r="C356" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="357" spans="3:3" ht="14.25" customHeight="1">
       <c r="C357" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="358" spans="3:3" ht="14.25" customHeight="1">
       <c r="C358" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="359" spans="3:3" ht="14.25" customHeight="1">
       <c r="C359" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="360" spans="3:3" ht="14.25" customHeight="1">
       <c r="C360" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="361" spans="3:3" ht="14.25" customHeight="1">
       <c r="C361" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="362" spans="3:3" ht="14.25" customHeight="1">
       <c r="C362" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="363" spans="3:3" ht="14.25" customHeight="1">
       <c r="C363" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="364" spans="3:3" ht="14.25" customHeight="1">
       <c r="C364" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="365" spans="3:3" ht="14.25" customHeight="1">
       <c r="C365" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="366" spans="3:3" ht="14.25" customHeight="1">
       <c r="C366" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="367" spans="3:3" ht="14.25" customHeight="1">
       <c r="C367" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="368" spans="3:3" ht="14.25" customHeight="1">
       <c r="C368" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="369" spans="3:3" ht="14.25" customHeight="1">
       <c r="C369" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="370" spans="3:3" ht="14.25" customHeight="1">
       <c r="C370" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="371" spans="3:3" ht="14.25" customHeight="1">
       <c r="C371" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="372" spans="3:3" ht="14.25" customHeight="1">
       <c r="C372" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="373" spans="3:3" ht="14.25" customHeight="1">
       <c r="C373" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="374" spans="3:3" ht="14.25" customHeight="1">
       <c r="C374" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="375" spans="3:3" ht="14.25" customHeight="1">
       <c r="C375" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="376" spans="3:3" ht="14.25" customHeight="1">
       <c r="C376" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="377" spans="3:3" ht="14.25" customHeight="1">
       <c r="C377" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="378" spans="3:3" ht="14.25" customHeight="1">
       <c r="C378" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="379" spans="3:3" ht="14.25" customHeight="1">
       <c r="C379" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="380" spans="3:3" ht="14.25" customHeight="1">
       <c r="C380" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="381" spans="3:3" ht="14.25" customHeight="1">
       <c r="C381" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="382" spans="3:3" ht="14.25" customHeight="1">
       <c r="C382" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="383" spans="3:3" ht="14.25" customHeight="1">
       <c r="C383" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="384" spans="3:3" ht="14.25" customHeight="1">
       <c r="C384" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="385" spans="3:3" ht="14.25" customHeight="1">
       <c r="C385" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="386" spans="3:3" ht="14.25" customHeight="1">
       <c r="C386" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="387" spans="3:3" ht="14.25" customHeight="1">
       <c r="C387" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="388" spans="3:3" ht="14.25" customHeight="1">
       <c r="C388" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="389" spans="3:3" ht="14.25" customHeight="1">
       <c r="C389" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="390" spans="3:3" ht="14.25" customHeight="1">
       <c r="C390" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="391" spans="3:3" ht="14.25" customHeight="1">
       <c r="C391" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="392" spans="3:3" ht="14.25" customHeight="1">
       <c r="C392" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="393" spans="3:3" ht="14.25" customHeight="1">
       <c r="C393" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="394" spans="3:3" ht="14.25" customHeight="1">
       <c r="C394" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="395" spans="3:3" ht="14.25" customHeight="1">
       <c r="C395" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="396" spans="3:3" ht="14.25" customHeight="1">
       <c r="C396" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="397" spans="3:3" ht="14.25" customHeight="1">
       <c r="C397" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="398" spans="3:3" ht="14.25" customHeight="1">
       <c r="C398" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="399" spans="3:3" ht="14.25" customHeight="1">
       <c r="C399" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="400" spans="3:3" ht="14.25" customHeight="1">
       <c r="C400" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="401" spans="3:3" ht="14.25" customHeight="1">
       <c r="C401" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="402" spans="3:3" ht="14.25" customHeight="1">
       <c r="C402" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="403" spans="3:3" ht="14.25" customHeight="1">
       <c r="C403" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="404" spans="3:3" ht="14.25" customHeight="1">
       <c r="C404" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="405" spans="3:3" ht="14.25" customHeight="1">
       <c r="C405" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="406" spans="3:3" ht="14.25" customHeight="1">
       <c r="C406" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="407" spans="3:3" ht="14.25" customHeight="1">
       <c r="C407" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="408" spans="3:3" ht="14.25" customHeight="1">
       <c r="C408" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" spans="3:3" ht="14.25" customHeight="1">
       <c r="C409" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="410" spans="3:3" ht="14.25" customHeight="1">
       <c r="C410" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="411" spans="3:3" ht="14.25" customHeight="1">
       <c r="C411" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="412" spans="3:3" ht="14.25" customHeight="1">
       <c r="C412" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="413" spans="3:3" ht="14.25" customHeight="1">
       <c r="C413" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="414" spans="3:3" ht="14.25" customHeight="1">
       <c r="C414" s="21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="415" spans="3:3" ht="14.25" customHeight="1">
       <c r="C415" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="416" spans="3:3" ht="14.25" customHeight="1">
       <c r="C416" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="417" spans="3:3" ht="14.25" customHeight="1">
       <c r="C417" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="418" spans="3:3" ht="14.25" customHeight="1">
       <c r="C418" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="419" spans="3:3" ht="14.25" customHeight="1">
       <c r="C419" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="420" spans="3:3" ht="14.25" customHeight="1">
       <c r="C420" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="421" spans="3:3" ht="14.25" customHeight="1">
       <c r="C421" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="422" spans="3:3" ht="14.25" customHeight="1">
       <c r="C422" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="423" spans="3:3" ht="14.25" customHeight="1">
       <c r="C423" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="424" spans="3:3" ht="14.25" customHeight="1">
       <c r="C424" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="425" spans="3:3" ht="14.25" customHeight="1">
       <c r="C425" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="426" spans="3:3" ht="14.25" customHeight="1">
       <c r="C426" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="427" spans="3:3" ht="14.25" customHeight="1">
       <c r="C427" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="428" spans="3:3" ht="14.25" customHeight="1">
       <c r="C428" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="429" spans="3:3" ht="14.25" customHeight="1">
       <c r="C429" s="21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="430" spans="3:3" ht="14.25" customHeight="1">
       <c r="C430" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="431" spans="3:3" ht="14.25" customHeight="1">
       <c r="C431" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="432" spans="3:3" ht="14.25" customHeight="1">
       <c r="C432" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="433" spans="3:3" ht="14.25" customHeight="1">
       <c r="C433" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="434" spans="3:3" ht="14.25" customHeight="1">
       <c r="C434" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="435" spans="3:3" ht="14.25" customHeight="1">
       <c r="C435" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="436" spans="3:3" ht="14.25" customHeight="1">
       <c r="C436" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="437" spans="3:3" ht="14.25" customHeight="1">
       <c r="C437" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="438" spans="3:3" ht="14.25" customHeight="1">
       <c r="C438" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="439" spans="3:3" ht="14.25" customHeight="1">
       <c r="C439" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="440" spans="3:3" ht="14.25" customHeight="1">
       <c r="C440" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="441" spans="3:3" ht="14.25" customHeight="1">
       <c r="C441" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="442" spans="3:3" ht="14.25" customHeight="1">
       <c r="C442" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="443" spans="3:3" ht="14.25" customHeight="1">
       <c r="C443" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="444" spans="3:3" ht="14.25" customHeight="1">
       <c r="C444" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="445" spans="3:3" ht="14.25" customHeight="1">
       <c r="C445" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="446" spans="3:3" ht="14.25" customHeight="1">
       <c r="C446" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="447" spans="3:3" ht="14.25" customHeight="1">
       <c r="C447" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="448" spans="3:3" ht="14.25" customHeight="1">
       <c r="C448" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="449" spans="3:3" ht="14.25" customHeight="1">
       <c r="C449" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="450" spans="3:3" ht="14.25" customHeight="1">
       <c r="C450" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="451" spans="3:3" ht="14.25" customHeight="1">
       <c r="C451" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="452" spans="3:3" ht="14.25" customHeight="1">
       <c r="C452" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="453" spans="3:3" ht="14.25" customHeight="1">
       <c r="C453" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="454" spans="3:3" ht="14.25" customHeight="1">
       <c r="C454" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="455" spans="3:3" ht="14.25" customHeight="1">
       <c r="C455" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="456" spans="3:3" ht="14.25" customHeight="1">
       <c r="C456" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="457" spans="3:3" ht="14.25" customHeight="1">
       <c r="C457" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="458" spans="3:3" ht="14.25" customHeight="1">
       <c r="C458" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="459" spans="3:3" ht="14.25" customHeight="1">
       <c r="C459" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="460" spans="3:3" ht="14.25" customHeight="1">
       <c r="C460" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="461" spans="3:3" ht="14.25" customHeight="1">
       <c r="C461" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="462" spans="3:3" ht="14.25" customHeight="1">
       <c r="C462" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="463" spans="3:3" ht="14.25" customHeight="1">
       <c r="C463" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="464" spans="3:3" ht="14.25" customHeight="1">
       <c r="C464" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="465" spans="3:3" ht="14.25" customHeight="1">
       <c r="C465" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="466" spans="3:3" ht="14.25" customHeight="1">
       <c r="C466" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="467" spans="3:3" ht="14.25" customHeight="1">
       <c r="C467" s="21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="468" spans="3:3" ht="14.25" customHeight="1">
       <c r="C468" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="469" spans="3:3" ht="14.25" customHeight="1">
       <c r="C469" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="470" spans="3:3" ht="14.25" customHeight="1">
       <c r="C470" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="471" spans="3:3" ht="14.25" customHeight="1">
       <c r="C471" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="472" spans="3:3" ht="14.25" customHeight="1">
       <c r="C472" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="473" spans="3:3" ht="14.25" customHeight="1">
       <c r="C473" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="474" spans="3:3" ht="14.25" customHeight="1">
       <c r="C474" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="475" spans="3:3" ht="14.25" customHeight="1">
       <c r="C475" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="476" spans="3:3" ht="14.25" customHeight="1">
       <c r="C476" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="477" spans="3:3" ht="14.25" customHeight="1">
       <c r="C477" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="478" spans="3:3" ht="14.25" customHeight="1">
       <c r="C478" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="479" spans="3:3" ht="14.25" customHeight="1">
       <c r="C479" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="480" spans="3:3" ht="14.25" customHeight="1">
       <c r="C480" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="481" spans="3:3" ht="14.25" customHeight="1">
       <c r="C481" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="482" spans="3:3" ht="14.25" customHeight="1">
       <c r="C482" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="483" spans="3:3" ht="14.25" customHeight="1">
       <c r="C483" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="484" spans="3:3" ht="14.25" customHeight="1">
       <c r="C484" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="485" spans="3:3" ht="14.25" customHeight="1">
       <c r="C485" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="486" spans="3:3" ht="14.25" customHeight="1">
       <c r="C486" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="487" spans="3:3" ht="14.25" customHeight="1">
       <c r="C487" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="488" spans="3:3" ht="14.25" customHeight="1">
       <c r="C488" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="489" spans="3:3" ht="14.25" customHeight="1">
       <c r="C489" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="490" spans="3:3" ht="14.25" customHeight="1">
       <c r="C490" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="491" spans="3:3" ht="14.25" customHeight="1">
       <c r="C491" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="492" spans="3:3" ht="14.25" customHeight="1">
       <c r="C492" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="493" spans="3:3" ht="14.25" customHeight="1">
       <c r="C493" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="494" spans="3:3" ht="14.25" customHeight="1">
       <c r="C494" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="495" spans="3:3" ht="14.25" customHeight="1">
       <c r="C495" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="496" spans="3:3" ht="14.25" customHeight="1">
       <c r="C496" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="497" spans="3:3" ht="14.25" customHeight="1">
       <c r="C497" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="498" spans="3:3" ht="14.25" customHeight="1">
       <c r="C498" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="499" spans="3:3" ht="14.25" customHeight="1">
       <c r="C499" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="500" spans="3:3" ht="14.25" customHeight="1">
       <c r="C500" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="501" spans="3:3" ht="14.25" customHeight="1">
       <c r="C501" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="502" spans="3:3" ht="14.25" customHeight="1">
       <c r="C502" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="503" spans="3:3" ht="14.25" customHeight="1">
       <c r="C503" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="504" spans="3:3" ht="14.25" customHeight="1">
       <c r="C504" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="505" spans="3:3" ht="14.25" customHeight="1">
       <c r="C505" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="506" spans="3:3" ht="14.25" customHeight="1">
       <c r="C506" s="21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="507" spans="3:3" ht="14.25" customHeight="1">
       <c r="C507" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="508" spans="3:3" ht="14.25" customHeight="1">
       <c r="C508" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="509" spans="3:3" ht="14.25" customHeight="1">
       <c r="C509" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="510" spans="3:3" ht="14.25" customHeight="1">
       <c r="C510" s="21" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="511" spans="3:3" ht="14.25" customHeight="1">
       <c r="C511" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="512" spans="3:3" ht="14.25" customHeight="1">
       <c r="C512" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="513" spans="3:3" ht="14.25" customHeight="1">
       <c r="C513" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="514" spans="3:3" ht="14.25" customHeight="1">
       <c r="C514" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="515" spans="3:3" ht="14.25" customHeight="1">
       <c r="C515" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="516" spans="3:3" ht="14.25" customHeight="1">
       <c r="C516" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="517" spans="3:3" ht="14.25" customHeight="1">
       <c r="C517" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="518" spans="3:3" ht="14.25" customHeight="1">
       <c r="C518" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="519" spans="3:3" ht="14.25" customHeight="1">
       <c r="C519" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="520" spans="3:3" ht="14.25" customHeight="1">
       <c r="C520" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="521" spans="3:3" ht="14.25" customHeight="1">
       <c r="C521" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="522" spans="3:3" ht="14.25" customHeight="1">
       <c r="C522" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="523" spans="3:3" ht="14.25" customHeight="1">
       <c r="C523" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="524" spans="3:3" ht="14.25" customHeight="1">
       <c r="C524" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="525" spans="3:3" ht="14.25" customHeight="1">
       <c r="C525" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="526" spans="3:3" ht="14.25" customHeight="1">
       <c r="C526" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="527" spans="3:3" ht="14.25" customHeight="1">
       <c r="C527" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="528" spans="3:3" ht="14.25" customHeight="1">
       <c r="C528" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="529" spans="3:3" ht="14.25" customHeight="1">
       <c r="C529" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="530" spans="3:3" ht="14.25" customHeight="1">
       <c r="C530" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="531" spans="3:3" ht="14.25" customHeight="1">
       <c r="C531" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="532" spans="3:3" ht="14.25" customHeight="1">
       <c r="C532" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="533" spans="3:3" ht="14.25" customHeight="1">
       <c r="C533" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="534" spans="3:3" ht="14.25" customHeight="1">
       <c r="C534" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="535" spans="3:3" ht="14.25" customHeight="1">
       <c r="C535" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="536" spans="3:3" ht="14.25" customHeight="1">
       <c r="C536" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="537" spans="3:3" ht="14.25" customHeight="1">
       <c r="C537" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="538" spans="3:3" ht="14.25" customHeight="1">
       <c r="C538" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="539" spans="3:3" ht="14.25" customHeight="1">
       <c r="C539" s="22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="540" spans="3:3" ht="14.25" customHeight="1">
       <c r="C540" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="541" spans="3:3" ht="14.25" customHeight="1">
       <c r="C541" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="542" spans="3:3" ht="14.25" customHeight="1">
       <c r="C542" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="543" spans="3:3" ht="14.25" customHeight="1">
       <c r="C543" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="544" spans="3:3" ht="14.25" customHeight="1">
       <c r="C544" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="545" spans="3:3" ht="14.25" customHeight="1">
       <c r="C545" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="546" spans="3:3" ht="14.25" customHeight="1">
       <c r="C546" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="547" spans="3:3" ht="14.25" customHeight="1">
       <c r="C547" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="548" spans="3:3" ht="14.25" customHeight="1">
       <c r="C548" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="549" spans="3:3" ht="14.25" customHeight="1">
       <c r="C549" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="550" spans="3:3" ht="14.25" customHeight="1">
       <c r="C550" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="551" spans="3:3" ht="14.25" customHeight="1">
       <c r="C551" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="552" spans="3:3" ht="14.25" customHeight="1">
       <c r="C552" s="21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="553" spans="3:3" ht="14.25" customHeight="1">
       <c r="C553" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="554" spans="3:3" ht="14.25" customHeight="1">
       <c r="C554" s="21" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="555" spans="3:3" ht="14.25" customHeight="1">
       <c r="C555" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="556" spans="3:3" ht="14.25" customHeight="1">
       <c r="C556" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="557" spans="3:3" ht="14.25" customHeight="1">
       <c r="C557" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="558" spans="3:3" ht="14.25" customHeight="1">
       <c r="C558" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="559" spans="3:3" ht="14.25" customHeight="1">
       <c r="C559" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="560" spans="3:3" ht="14.25" customHeight="1">
       <c r="C560" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="561" spans="3:3" ht="14.25" customHeight="1">
       <c r="C561" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="562" spans="3:3" ht="14.25" customHeight="1">
       <c r="C562" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="563" spans="3:3" ht="14.25" customHeight="1">
       <c r="C563" s="22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="564" spans="3:3" ht="14.25" customHeight="1">
       <c r="C564" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="565" spans="3:3" ht="14.25" customHeight="1">
       <c r="C565" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="566" spans="3:3" ht="14.25" customHeight="1">
       <c r="C566" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="567" spans="3:3" ht="14.25" customHeight="1">
       <c r="C567" s="21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="568" spans="3:3" ht="14.25" customHeight="1">
       <c r="C568" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="569" spans="3:3" ht="14.25" customHeight="1">
       <c r="C569" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="570" spans="3:3" ht="14.25" customHeight="1">
       <c r="C570" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="571" spans="3:3" ht="14.25" customHeight="1">
       <c r="C571" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="572" spans="3:3" ht="14.25" customHeight="1">
       <c r="C572" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="573" spans="3:3" ht="14.25" customHeight="1">
       <c r="C573" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="574" spans="3:3" ht="14.25" customHeight="1">
       <c r="C574" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="575" spans="3:3" ht="14.25" customHeight="1">
       <c r="C575" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="576" spans="3:3" ht="14.25" customHeight="1">
       <c r="C576" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="577" spans="3:3" ht="14.25" customHeight="1">
       <c r="C577" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="578" spans="3:3" ht="14.25" customHeight="1">
       <c r="C578" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="579" spans="3:3" ht="14.25" customHeight="1">
       <c r="C579" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="580" spans="3:3" ht="14.25" customHeight="1">
       <c r="C580" s="21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="581" spans="3:3" ht="14.25" customHeight="1">
       <c r="C581" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="582" spans="3:3" ht="14.25" customHeight="1">
       <c r="C582" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="583" spans="3:3" ht="14.25" customHeight="1">
       <c r="C583" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="584" spans="3:3" ht="14.25" customHeight="1">
       <c r="C584" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="585" spans="3:3" ht="14.25" customHeight="1">
       <c r="C585" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="586" spans="3:3" ht="14.25" customHeight="1">
       <c r="C586" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="587" spans="3:3" ht="14.25" customHeight="1">
       <c r="C587" s="21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="588" spans="3:3" ht="14.25" customHeight="1">
       <c r="C588" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="589" spans="3:3" ht="14.25" customHeight="1">
       <c r="C589" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="590" spans="3:3" ht="14.25" customHeight="1">
       <c r="C590" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="591" spans="3:3" ht="14.25" customHeight="1">
       <c r="C591" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="592" spans="3:3" ht="14.25" customHeight="1">
       <c r="C592" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="593" spans="3:3" ht="14.25" customHeight="1">
       <c r="C593" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="594" spans="3:3" ht="14.25" customHeight="1">
       <c r="C594" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="595" spans="3:3" ht="14.25" customHeight="1">
       <c r="C595" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="596" spans="3:3" ht="14.25" customHeight="1">
       <c r="C596" s="21" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="597" spans="3:3" ht="14.25" customHeight="1">
       <c r="C597" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="598" spans="3:3" ht="14.25" customHeight="1">
       <c r="C598" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="599" spans="3:3" ht="14.25" customHeight="1">
       <c r="C599" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="600" spans="3:3" ht="14.25" customHeight="1">
       <c r="C600" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="601" spans="3:3" ht="14.25" customHeight="1">
       <c r="C601" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="602" spans="3:3" ht="14.25" customHeight="1">
       <c r="C602" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="603" spans="3:3" ht="14.25" customHeight="1">
       <c r="C603" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="604" spans="3:3" ht="14.25" customHeight="1">
       <c r="C604" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="605" spans="3:3" ht="14.25" customHeight="1">
       <c r="C605" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="606" spans="3:3" ht="14.25" customHeight="1">
       <c r="C606" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="607" spans="3:3" ht="14.25" customHeight="1">
       <c r="C607" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="608" spans="3:3" ht="14.25" customHeight="1">
       <c r="C608" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="609" spans="3:3" ht="14.25" customHeight="1">
       <c r="C609" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="610" spans="3:3" ht="14.25" customHeight="1">
       <c r="C610" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="611" spans="3:3" ht="14.25" customHeight="1">
       <c r="C611" s="22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="612" spans="3:3" ht="14.25" customHeight="1">
       <c r="C612" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="613" spans="3:3" ht="14.25" customHeight="1">
       <c r="C613" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="614" spans="3:3" ht="14.25" customHeight="1">
       <c r="C614" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="615" spans="3:3" ht="14.25" customHeight="1">
       <c r="C615" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="616" spans="3:3" ht="14.25" customHeight="1">
       <c r="C616" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="617" spans="3:3" ht="14.25" customHeight="1">
       <c r="C617" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="618" spans="3:3" ht="14.25" customHeight="1">
       <c r="C618" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="619" spans="3:3" ht="14.25" customHeight="1">
       <c r="C619" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="620" spans="3:3" ht="14.25" customHeight="1">
       <c r="C620" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="621" spans="3:3" ht="14.25" customHeight="1">
       <c r="C621" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="622" spans="3:3" ht="14.25" customHeight="1">
       <c r="C622" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="623" spans="3:3" ht="14.25" customHeight="1">
       <c r="C623" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="624" spans="3:3" ht="14.25" customHeight="1">
       <c r="C624" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="625" spans="3:3" ht="14.25" customHeight="1">
       <c r="C625" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="626" spans="3:3" ht="14.25" customHeight="1">
       <c r="C626" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="627" spans="3:3" ht="14.25" customHeight="1">
       <c r="C627" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="628" spans="3:3" ht="14.25" customHeight="1">
       <c r="C628" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="629" spans="3:3" ht="14.25" customHeight="1">
       <c r="C629" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="630" spans="3:3" ht="14.25" customHeight="1">
       <c r="C630" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="631" spans="3:3" ht="14.25" customHeight="1">
       <c r="C631" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="632" spans="3:3" ht="14.25" customHeight="1">
       <c r="C632" s="22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="633" spans="3:3" ht="14.25" customHeight="1">
       <c r="C633" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="634" spans="3:3" ht="14.25" customHeight="1">
       <c r="C634" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="635" spans="3:3" ht="14.25" customHeight="1">
       <c r="C635" s="22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="636" spans="3:3" ht="14.25" customHeight="1">
       <c r="C636" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="637" spans="3:3" ht="14.25" customHeight="1">
       <c r="C637" s="22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="638" spans="3:3" ht="14.25" customHeight="1">
       <c r="C638" s="21" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="639" spans="3:3" ht="14.25" customHeight="1">
       <c r="C639" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="640" spans="3:3" ht="14.25" customHeight="1">
       <c r="C640" s="21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="641" spans="3:3" ht="14.25" customHeight="1">
       <c r="C641" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="642" spans="3:3" ht="14.25" customHeight="1">
       <c r="C642" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="643" spans="3:3" ht="14.25" customHeight="1">
       <c r="C643" s="21" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="644" spans="3:3" ht="14.25" customHeight="1">
       <c r="C644" s="22" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="645" spans="3:3" ht="14.25" customHeight="1">
       <c r="C645" s="22" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="646" spans="3:3" ht="14.25" customHeight="1">
       <c r="C646" s="22" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="647" spans="3:3" ht="14.25" customHeight="1">
       <c r="C647" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="648" spans="3:3" ht="14.25" customHeight="1">
       <c r="C648" s="21" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="649" spans="3:3" ht="14.25" customHeight="1">
       <c r="C649" s="22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="650" spans="3:3" ht="14.25" customHeight="1">
       <c r="C650" s="21" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="651" spans="3:3" ht="14.25" customHeight="1">
       <c r="C651" s="22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="652" spans="3:3" ht="14.25" customHeight="1">
       <c r="C652" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="653" spans="3:3" ht="14.25" customHeight="1">
       <c r="C653" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="654" spans="3:3" ht="14.25" customHeight="1">
       <c r="C654" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="655" spans="3:3" ht="14.25" customHeight="1">
       <c r="C655" s="22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="656" spans="3:3" ht="14.25" customHeight="1">
       <c r="C656" s="22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="657" spans="3:3" ht="14.25" customHeight="1">
       <c r="C657" s="22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="658" spans="3:3" ht="14.25" customHeight="1">
       <c r="C658" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="659" spans="3:3" ht="14.25" customHeight="1">
       <c r="C659" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="660" spans="3:3" ht="14.25" customHeight="1">
       <c r="C660" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="661" spans="3:3" ht="14.25" customHeight="1">
       <c r="C661" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="662" spans="3:3" ht="14.25" customHeight="1">
       <c r="C662" s="21" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="663" spans="3:3" ht="14.25" customHeight="1">
       <c r="C663" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="664" spans="3:3" ht="14.25" customHeight="1">
       <c r="C664" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="665" spans="3:3" ht="14.25" customHeight="1">
       <c r="C665" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="666" spans="3:3" ht="14.25" customHeight="1">
       <c r="C666" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="667" spans="3:3" ht="14.25" customHeight="1">
       <c r="C667" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="668" spans="3:3" ht="14.25" customHeight="1">
       <c r="C668" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="669" spans="3:3" ht="14.25" customHeight="1">
       <c r="C669" s="21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="670" spans="3:3" ht="14.25" customHeight="1">
       <c r="C670" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="671" spans="3:3" ht="14.25" customHeight="1">
       <c r="C671" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="672" spans="3:3" ht="14.25" customHeight="1">
       <c r="C672" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="673" spans="3:3" ht="14.25" customHeight="1">
       <c r="C673" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="674" spans="3:3" ht="14.25" customHeight="1">
       <c r="C674" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="675" spans="3:3" ht="14.25" customHeight="1">
       <c r="C675" s="21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="676" spans="3:3" ht="14.25" customHeight="1">
       <c r="C676" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="677" spans="3:3" ht="14.25" customHeight="1">
       <c r="C677" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="678" spans="3:3" ht="14.25" customHeight="1">
       <c r="C678" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="679" spans="3:3" ht="14.25" customHeight="1">
       <c r="C679" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="680" spans="3:3" ht="14.25" customHeight="1">
       <c r="C680" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="681" spans="3:3" ht="14.25" customHeight="1">
       <c r="C681" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="682" spans="3:3" ht="14.25" customHeight="1">
       <c r="C682" s="22" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="683" spans="3:3" ht="14.25" customHeight="1">
       <c r="C683" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="684" spans="3:3" ht="14.25" customHeight="1">
       <c r="C684" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="685" spans="3:3" ht="14.25" customHeight="1">
       <c r="C685" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="686" spans="3:3" ht="14.25" customHeight="1">
       <c r="C686" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="687" spans="3:3" ht="14.25" customHeight="1">
       <c r="C687" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="688" spans="3:3" ht="14.25" customHeight="1">
       <c r="C688" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="689" spans="3:3" ht="14.25" customHeight="1">
       <c r="C689" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="690" spans="3:3" ht="14.25" customHeight="1">
       <c r="C690" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="691" spans="3:3" ht="14.25" customHeight="1">
       <c r="C691" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="692" spans="3:3" ht="14.25" customHeight="1">
       <c r="C692" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="693" spans="3:3" ht="14.25" customHeight="1">
       <c r="C693" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="694" spans="3:3" ht="14.25" customHeight="1">
       <c r="C694" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="695" spans="3:3" ht="14.25" customHeight="1">
       <c r="C695" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="696" spans="3:3" ht="14.25" customHeight="1">
       <c r="C696" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="697" spans="3:3" ht="14.25" customHeight="1">
       <c r="C697" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="698" spans="3:3" ht="14.25" customHeight="1">
       <c r="C698" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="699" spans="3:3" ht="14.25" customHeight="1">
       <c r="C699" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="700" spans="3:3" ht="14.25" customHeight="1">
       <c r="C700" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="701" spans="3:3" ht="14.25" customHeight="1">
       <c r="C701" s="22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="702" spans="3:3" ht="14.25" customHeight="1">
       <c r="C702" s="22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="703" spans="3:3" ht="14.25" customHeight="1">
       <c r="C703" s="22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="704" spans="3:3" ht="14.25" customHeight="1">
       <c r="C704" s="22" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="705" spans="3:3" ht="14.25" customHeight="1">
       <c r="C705" s="22" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="706" spans="3:3" ht="14.25" customHeight="1">
       <c r="C706" s="22" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="707" spans="3:3" ht="14.25" customHeight="1">
       <c r="C707" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="708" spans="3:3" ht="14.25" customHeight="1">
       <c r="C708" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="709" spans="3:3" ht="14.25" customHeight="1">
       <c r="C709" s="22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="710" spans="3:3" ht="14.25" customHeight="1">
       <c r="C710" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="711" spans="3:3" ht="14.25" customHeight="1">
       <c r="C711" s="21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="712" spans="3:3" ht="14.25" customHeight="1">
       <c r="C712" s="22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="713" spans="3:3" ht="14.25" customHeight="1">
       <c r="C713" s="21" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="714" spans="3:3" ht="14.25" customHeight="1">
       <c r="C714" s="21" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="715" spans="3:3" ht="14.25" customHeight="1">
       <c r="C715" s="22" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="716" spans="3:3" ht="14.25" customHeight="1">
       <c r="C716" s="22" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="717" spans="3:3" ht="14.25" customHeight="1">
       <c r="C717" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="718" spans="3:3" ht="14.25" customHeight="1">
       <c r="C718" s="22" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="719" spans="3:3" ht="14.25" customHeight="1">
       <c r="C719" s="22" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="720" spans="3:3" ht="14.25" customHeight="1">
       <c r="C720" s="22" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="721" spans="3:3" ht="14.25" customHeight="1">
       <c r="C721" s="22" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="722" spans="3:3" ht="14.25" customHeight="1">
       <c r="C722" s="22" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="723" spans="3:3" ht="14.25" customHeight="1">
       <c r="C723" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="724" spans="3:3" ht="14.25" customHeight="1">
       <c r="C724" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="725" spans="3:3" ht="14.25" customHeight="1">
       <c r="C725" s="22" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="726" spans="3:3" ht="14.25" customHeight="1">
       <c r="C726" s="22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="727" spans="3:3" ht="14.25" customHeight="1">
       <c r="C727" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="728" spans="3:3" ht="14.25" customHeight="1">
       <c r="C728" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="729" spans="3:3" ht="14.25" customHeight="1">
       <c r="C729" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="730" spans="3:3" ht="14.25" customHeight="1">
       <c r="C730" s="22" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="731" spans="3:3" ht="14.25" customHeight="1">
       <c r="C731" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="732" spans="3:3" ht="14.25" customHeight="1">
       <c r="C732" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="733" spans="3:3" ht="14.25" customHeight="1">
       <c r="C733" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="734" spans="3:3" ht="14.25" customHeight="1">
       <c r="C734" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="735" spans="3:3" ht="14.25" customHeight="1">
       <c r="C735" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="736" spans="3:3" ht="14.25" customHeight="1">
       <c r="C736" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="737" spans="3:3" ht="14.25" customHeight="1">
       <c r="C737" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="738" spans="3:3" ht="14.25" customHeight="1">
       <c r="C738" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="739" spans="3:3" ht="14.25" customHeight="1">
       <c r="C739" s="22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="740" spans="3:3" ht="14.25" customHeight="1">
       <c r="C740" s="22" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="741" spans="3:3" ht="14.25" customHeight="1">
       <c r="C741" s="22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="742" spans="3:3" ht="14.25" customHeight="1">
       <c r="C742" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="743" spans="3:3" ht="14.25" customHeight="1">
       <c r="C743" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="744" spans="3:3" ht="14.25" customHeight="1">
       <c r="C744" s="22" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="745" spans="3:3" ht="14.25" customHeight="1">
       <c r="C745" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="746" spans="3:3" ht="14.25" customHeight="1">
       <c r="C746" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="747" spans="3:3" ht="14.25" customHeight="1">
       <c r="C747" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="748" spans="3:3" ht="14.25" customHeight="1">
       <c r="C748" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="749" spans="3:3" ht="14.25" customHeight="1">
       <c r="C749" s="22" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="750" spans="3:3" ht="14.25" customHeight="1">
       <c r="C750" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="751" spans="3:3" ht="14.25" customHeight="1">
       <c r="C751" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="752" spans="3:3" ht="14.25" customHeight="1">
       <c r="C752" s="22" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="753" spans="3:3" ht="14.25" customHeight="1">
       <c r="C753" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="754" spans="3:3" ht="14.25" customHeight="1">
       <c r="C754" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="755" spans="3:3" ht="14.25" customHeight="1">
       <c r="C755" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="756" spans="3:3" ht="14.25" customHeight="1">
       <c r="C756" s="21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="757" spans="3:3" ht="14.25" customHeight="1">
       <c r="C757" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="758" spans="3:3" ht="14.25" customHeight="1">
       <c r="C758" s="22" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="759" spans="3:3" ht="14.25" customHeight="1">
       <c r="C759" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="760" spans="3:3" ht="14.25" customHeight="1">
       <c r="C760" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="761" spans="3:3" ht="14.25" customHeight="1">
       <c r="C761" s="22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="762" spans="3:3" ht="14.25" customHeight="1">
       <c r="C762" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="763" spans="3:3" ht="14.25" customHeight="1">
       <c r="C763" s="22" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="764" spans="3:3" ht="14.25" customHeight="1">
       <c r="C764" s="22" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="765" spans="3:3" ht="14.25" customHeight="1">
       <c r="C765" s="22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="766" spans="3:3" ht="14.25" customHeight="1">
       <c r="C766" s="22" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="767" spans="3:3" ht="14.25" customHeight="1">
       <c r="C767" s="21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="768" spans="3:3" ht="14.25" customHeight="1">
       <c r="C768" s="22" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="769" spans="3:3" ht="14.25" customHeight="1">
       <c r="C769" s="22" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="770" spans="3:3" ht="14.25" customHeight="1">
       <c r="C770" s="22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="771" spans="3:3" ht="14.25" customHeight="1">
       <c r="C771" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="772" spans="3:3" ht="14.25" customHeight="1">
       <c r="C772" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="773" spans="3:3" ht="14.25" customHeight="1">
       <c r="C773" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="774" spans="3:3" ht="14.25" customHeight="1">
       <c r="C774" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="775" spans="3:3" ht="14.25" customHeight="1">
       <c r="C775" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="776" spans="3:3" ht="14.25" customHeight="1">
       <c r="C776" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="777" spans="3:3" ht="14.25" customHeight="1">
       <c r="C777" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="778" spans="3:3" ht="14.25" customHeight="1">
       <c r="C778" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="779" spans="3:3" ht="14.25" customHeight="1">
       <c r="C779" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="780" spans="3:3" ht="14.25" customHeight="1">
       <c r="C780" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="781" spans="3:3" ht="14.25" customHeight="1">
       <c r="C781" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="782" spans="3:3" ht="14.25" customHeight="1">
       <c r="C782" s="22" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="783" spans="3:3" ht="14.25" customHeight="1">
       <c r="C783" s="22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="784" spans="3:3" ht="14.25" customHeight="1">
       <c r="C784" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="785" spans="3:3" ht="14.25" customHeight="1">
       <c r="C785" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="786" spans="3:3" ht="14.25" customHeight="1">
       <c r="C786" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="787" spans="3:3" ht="14.25" customHeight="1">
       <c r="C787" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="788" spans="3:3" ht="14.25" customHeight="1">
       <c r="C788" s="22" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="789" spans="3:3" ht="14.25" customHeight="1">
       <c r="C789" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="790" spans="3:3" ht="14.25" customHeight="1">
       <c r="C790" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="791" spans="3:3" ht="14.25" customHeight="1">
       <c r="C791" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="792" spans="3:3" ht="14.25" customHeight="1">
       <c r="C792" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="793" spans="3:3" ht="14.25" customHeight="1">
       <c r="C793" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="794" spans="3:3" ht="14.25" customHeight="1">
       <c r="C794" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="795" spans="3:3" ht="14.25" customHeight="1">
       <c r="C795" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="796" spans="3:3" ht="14.25" customHeight="1">
       <c r="C796" s="22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="797" spans="3:3" ht="14.25" customHeight="1">
       <c r="C797" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="798" spans="3:3" ht="14.25" customHeight="1">
       <c r="C798" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="799" spans="3:3" ht="14.25" customHeight="1">
       <c r="C799" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="800" spans="3:3" ht="14.25" customHeight="1">
       <c r="C800" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="801" spans="3:3" ht="14.25" customHeight="1">
       <c r="C801" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="802" spans="3:3" ht="14.25" customHeight="1">
       <c r="C802" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="803" spans="3:3" ht="14.25" customHeight="1">
       <c r="C803" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="804" spans="3:3" ht="14.25" customHeight="1">
       <c r="C804" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="805" spans="3:3" ht="14.25" customHeight="1">
       <c r="C805" s="22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="806" spans="3:3" ht="14.25" customHeight="1">
       <c r="C806" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="807" spans="3:3" ht="14.25" customHeight="1">
       <c r="C807" s="22" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="808" spans="3:3" ht="14.25" customHeight="1">
       <c r="C808" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="809" spans="3:3" ht="14.25" customHeight="1">
       <c r="C809" s="22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="810" spans="3:3" ht="14.25" customHeight="1">
       <c r="C810" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="811" spans="3:3" ht="14.25" customHeight="1">
       <c r="C811" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="812" spans="3:3" ht="14.25" customHeight="1">
       <c r="C812" s="22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="813" spans="3:3" ht="14.25" customHeight="1">
       <c r="C813" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="814" spans="3:3" ht="14.25" customHeight="1">
       <c r="C814" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="815" spans="3:3" ht="14.25" customHeight="1">
       <c r="C815" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="816" spans="3:3" ht="14.25" customHeight="1">
       <c r="C816" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="817" spans="3:3" ht="14.25" customHeight="1">
       <c r="C817" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="818" spans="3:3" ht="14.25" customHeight="1">
       <c r="C818" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="819" spans="3:3" ht="14.25" customHeight="1">
       <c r="C819" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="820" spans="3:3" ht="14.25" customHeight="1">
       <c r="C820" s="21" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="821" spans="3:3" ht="14.25" customHeight="1">
       <c r="C821" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="822" spans="3:3" ht="14.25" customHeight="1">
       <c r="C822" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="823" spans="3:3" ht="14.25" customHeight="1">
       <c r="C823" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="824" spans="3:3" ht="14.25" customHeight="1">
       <c r="C824" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="825" spans="3:3" ht="14.25" customHeight="1">
       <c r="C825" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="826" spans="3:3" ht="14.25" customHeight="1">
       <c r="C826" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="827" spans="3:3" ht="14.25" customHeight="1">
       <c r="C827" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="828" spans="3:3" ht="14.25" customHeight="1">
       <c r="C828" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="829" spans="3:3" ht="14.25" customHeight="1">
       <c r="C829" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="830" spans="3:3" ht="14.25" customHeight="1">
       <c r="C830" s="21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="831" spans="3:3" ht="14.25" customHeight="1">
       <c r="C831" s="21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="832" spans="3:3" ht="14.25" customHeight="1">
       <c r="C832" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="833" spans="3:3" ht="14.25" customHeight="1">
       <c r="C833" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="834" spans="3:3" ht="14.25" customHeight="1">
       <c r="C834" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="835" spans="3:3" ht="14.25" customHeight="1">
       <c r="C835" s="21" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="836" spans="3:3" ht="14.25" customHeight="1">
       <c r="C836" s="21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="837" spans="3:3" ht="14.25" customHeight="1">
       <c r="C837" s="21" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="838" spans="3:3" ht="14.25" customHeight="1">
       <c r="C838" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="839" spans="3:3" ht="14.25" customHeight="1">
       <c r="C839" s="21" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="840" spans="3:3" ht="14.25" customHeight="1">
       <c r="C840" s="21" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="841" spans="3:3" ht="14.25" customHeight="1">
       <c r="C841" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="842" spans="3:3" ht="14.25" customHeight="1">
       <c r="C842" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="843" spans="3:3" ht="14.25" customHeight="1">
       <c r="C843" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="844" spans="3:3" ht="14.25" customHeight="1">
       <c r="C844" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="845" spans="3:3" ht="14.25" customHeight="1">
       <c r="C845" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="846" spans="3:3" ht="14.25" customHeight="1">
       <c r="C846" s="22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="847" spans="3:3" ht="14.25" customHeight="1">
       <c r="C847" s="22" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="848" spans="3:3" ht="14.25" customHeight="1">
       <c r="C848" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="849" spans="3:3" ht="14.25" customHeight="1">
       <c r="C849" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="850" spans="3:3" ht="14.25" customHeight="1">
       <c r="C850" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="851" spans="3:3" ht="14.25" customHeight="1">
       <c r="C851" s="22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="852" spans="3:3" ht="14.25" customHeight="1">
       <c r="C852" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="853" spans="3:3" ht="14.25" customHeight="1">
       <c r="C853" s="22" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="854" spans="3:3" ht="14.25" customHeight="1">
       <c r="C854" s="22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="855" spans="3:3" ht="14.25" customHeight="1">
       <c r="C855" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="856" spans="3:3" ht="14.25" customHeight="1">
       <c r="C856" s="22" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="857" spans="3:3" ht="14.25" customHeight="1">
       <c r="C857" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="858" spans="3:3" ht="14.25" customHeight="1">
       <c r="C858" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="859" spans="3:3" ht="14.25" customHeight="1">
       <c r="C859" s="22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="860" spans="3:3" ht="14.25" customHeight="1">
       <c r="C860" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="861" spans="3:3" ht="14.25" customHeight="1">
       <c r="C861" s="22" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="862" spans="3:3" ht="14.25" customHeight="1">
       <c r="C862" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="863" spans="3:3" ht="14.25" customHeight="1">
       <c r="C863" s="21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="864" spans="3:3" ht="14.25" customHeight="1">
       <c r="C864" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="865" spans="3:3" ht="14.25" customHeight="1">
       <c r="C865" s="22" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="866" spans="3:3" ht="14.25" customHeight="1">
       <c r="C866" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="867" spans="3:3" ht="14.25" customHeight="1">
       <c r="C867" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="868" spans="3:3" ht="14.25" customHeight="1">
       <c r="C868" s="21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="869" spans="3:3" ht="14.25" customHeight="1">
       <c r="C869" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="870" spans="3:3" ht="14.25" customHeight="1">
       <c r="C870" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="871" spans="3:3" ht="14.25" customHeight="1">
       <c r="C871" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="872" spans="3:3" ht="14.25" customHeight="1">
       <c r="C872" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="873" spans="3:3" ht="14.25" customHeight="1">
       <c r="C873" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="874" spans="3:3" ht="14.25" customHeight="1">
       <c r="C874" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="875" spans="3:3" ht="14.25" customHeight="1">
       <c r="C875" s="22" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="876" spans="3:3" ht="14.25" customHeight="1">
       <c r="C876" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="877" spans="3:3" ht="14.25" customHeight="1">
       <c r="C877" s="21" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="878" spans="3:3" ht="14.25" customHeight="1">
       <c r="C878" s="21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="879" spans="3:3" ht="14.25" customHeight="1">
       <c r="C879" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="880" spans="3:3" ht="14.25" customHeight="1">
       <c r="C880" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="881" spans="3:3" ht="14.25" customHeight="1">
       <c r="C881" s="21" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="882" spans="3:3" ht="14.25" customHeight="1">
       <c r="C882" s="21" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="883" spans="3:3" ht="14.25" customHeight="1">
       <c r="C883" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="884" spans="3:3" ht="14.25" customHeight="1">
       <c r="C884" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="885" spans="3:3" ht="14.25" customHeight="1">
       <c r="C885" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="886" spans="3:3" ht="14.25" customHeight="1">
       <c r="C886" s="21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="887" spans="3:3" ht="14.25" customHeight="1">
       <c r="C887" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="888" spans="3:3" ht="14.25" customHeight="1">
       <c r="C888" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="889" spans="3:3" ht="14.25" customHeight="1">
       <c r="C889" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="890" spans="3:3" ht="14.25" customHeight="1">
       <c r="C890" s="21" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="891" spans="3:3" ht="14.25" customHeight="1">
       <c r="C891" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="892" spans="3:3" ht="14.25" customHeight="1">
       <c r="C892" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="893" spans="3:3" ht="14.25" customHeight="1">
       <c r="C893" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="894" spans="3:3" ht="14.25" customHeight="1">
       <c r="C894" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="895" spans="3:3" ht="14.25" customHeight="1">
       <c r="C895" s="22" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="896" spans="3:3" ht="14.25" customHeight="1">
       <c r="C896" s="21" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="897" spans="3:3" ht="14.25" customHeight="1">
       <c r="C897" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="898" spans="3:3" ht="14.25" customHeight="1">
       <c r="C898" s="22" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="899" spans="3:3" ht="14.25" customHeight="1">
       <c r="C899" s="22" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="900" spans="3:3" ht="14.25" customHeight="1">
       <c r="C900" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="901" spans="3:3" ht="14.25" customHeight="1">
       <c r="C901" s="21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="902" spans="3:3" ht="14.25" customHeight="1">
       <c r="C902" s="22" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="903" spans="3:3" ht="14.25" customHeight="1">
       <c r="C903" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="904" spans="3:3" ht="14.25" customHeight="1">
       <c r="C904" s="21" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="905" spans="3:3" ht="14.25" customHeight="1">
       <c r="C905" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="906" spans="3:3" ht="14.25" customHeight="1">
       <c r="C906" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="907" spans="3:3" ht="14.25" customHeight="1">
       <c r="C907" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="908" spans="3:3" ht="14.25" customHeight="1">
       <c r="C908" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="909" spans="3:3" ht="14.25" customHeight="1">
       <c r="C909" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="910" spans="3:3" ht="14.25" customHeight="1">
       <c r="C910" s="21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="911" spans="3:3" ht="14.25" customHeight="1">
       <c r="C911" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="912" spans="3:3" ht="14.25" customHeight="1">
       <c r="C912" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="913" spans="3:3" ht="14.25" customHeight="1">
       <c r="C913" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="914" spans="3:3" ht="14.25" customHeight="1">
       <c r="C914" s="21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="915" spans="3:3" ht="14.25" customHeight="1">
       <c r="C915" s="22" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="916" spans="3:3" ht="14.25" customHeight="1">
       <c r="C916" s="21" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="917" spans="3:3" ht="14.25" customHeight="1">
       <c r="C917" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="918" spans="3:3" ht="14.25" customHeight="1">
       <c r="C918" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="919" spans="3:3" ht="14.25" customHeight="1">
       <c r="C919" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="920" spans="3:3" ht="14.25" customHeight="1">
       <c r="C920" s="22" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="921" spans="3:3" ht="14.25" customHeight="1">
       <c r="C921" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="922" spans="3:3" ht="14.25" customHeight="1">
       <c r="C922" s="21" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="923" spans="3:3" ht="14.25" customHeight="1">
       <c r="C923" s="21" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="924" spans="3:3" ht="14.25" customHeight="1">
       <c r="C924" s="21" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="925" spans="3:3" ht="14.25" customHeight="1">
       <c r="C925" s="22" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="926" spans="3:3" ht="14.25" customHeight="1">
       <c r="C926" s="22" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="927" spans="3:3" ht="14.25" customHeight="1">
       <c r="C927" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="928" spans="3:3" ht="14.25" customHeight="1">
       <c r="C928" s="22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="929" spans="3:3" ht="14.25" customHeight="1">
       <c r="C929" s="22" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="930" spans="3:3" ht="14.25" customHeight="1">
       <c r="C930" s="22" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="931" spans="3:3" ht="14.25" customHeight="1">
       <c r="C931" s="21" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="932" spans="3:3" ht="14.25" customHeight="1">
       <c r="C932" s="22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="933" spans="3:3" ht="14.25" customHeight="1">
       <c r="C933" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="934" spans="3:3" ht="14.25" customHeight="1">
       <c r="C934" s="21" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="935" spans="3:3" ht="14.25" customHeight="1">
       <c r="C935" s="22" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="936" spans="3:3" ht="14.25" customHeight="1">
       <c r="C936" s="22" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="937" spans="3:3" ht="14.25" customHeight="1">
       <c r="C937" s="22" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="938" spans="3:3" ht="14.25" customHeight="1">
       <c r="C938" s="22" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="939" spans="3:3" ht="14.25" customHeight="1">
       <c r="C939" s="22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="940" spans="3:3" ht="14.25" customHeight="1">
       <c r="C940" s="21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="941" spans="3:3" ht="14.25" customHeight="1">
       <c r="C941" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="942" spans="3:3" ht="14.25" customHeight="1">
       <c r="C942" s="22" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="943" spans="3:3" ht="14.25" customHeight="1">
       <c r="C943" s="21" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="944" spans="3:3" ht="14.25" customHeight="1">
       <c r="C944" s="21" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="945" spans="3:3" ht="14.25" customHeight="1">
       <c r="C945" s="21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="946" spans="3:3" ht="14.25" customHeight="1">
       <c r="C946" s="21" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="947" spans="3:3" ht="14.25" customHeight="1">
       <c r="C947" s="21" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="948" spans="3:3" ht="14.25" customHeight="1">
       <c r="C948" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="949" spans="3:3" ht="14.25" customHeight="1">
       <c r="C949" s="21" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="950" spans="3:3" ht="14.25" customHeight="1">
       <c r="C950" s="21" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="951" spans="3:3" ht="14.25" customHeight="1">
       <c r="C951" s="21" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="952" spans="3:3" ht="14.25" customHeight="1">
       <c r="C952" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="953" spans="3:3" ht="14.25" customHeight="1">
       <c r="C953" s="21" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="954" spans="3:3" ht="14.25" customHeight="1">
       <c r="C954" s="21" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="955" spans="3:3" ht="14.25" customHeight="1">
       <c r="C955" s="21" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="956" spans="3:3" ht="14.25" customHeight="1">
       <c r="C956" s="21" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="957" spans="3:3" ht="14.25" customHeight="1">
       <c r="C957" s="22" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="958" spans="3:3" ht="14.25" customHeight="1">
       <c r="C958" s="21" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="959" spans="3:3" ht="14.25" customHeight="1">
       <c r="C959" s="21" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="960" spans="3:3" ht="14.25" customHeight="1">
       <c r="C960" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="961" spans="3:3" ht="14.25" customHeight="1">
       <c r="C961" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="962" spans="3:3" ht="14.25" customHeight="1">
       <c r="C962" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="963" spans="3:3" ht="14.25" customHeight="1">
       <c r="C963" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="964" spans="3:3" ht="14.25" customHeight="1">
       <c r="C964" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="965" spans="3:3" ht="14.25" customHeight="1">
       <c r="C965" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="966" spans="3:3" ht="14.25" customHeight="1">
       <c r="C966" s="22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="967" spans="3:3" ht="14.25" customHeight="1">
       <c r="C967" s="22" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="968" spans="3:3" ht="14.25" customHeight="1">
       <c r="C968" s="21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="969" spans="3:3" ht="14.25" customHeight="1">
       <c r="C969" s="22" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="970" spans="3:3" ht="14.25" customHeight="1">
       <c r="C970" s="22" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="971" spans="3:3" ht="14.25" customHeight="1">
       <c r="C971" s="21" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="972" spans="3:3" ht="14.25" customHeight="1">
       <c r="C972" s="21" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="973" spans="3:3" ht="14.25" customHeight="1">
       <c r="C973" s="22" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="974" spans="3:3" ht="14.25" customHeight="1">
       <c r="C974" s="21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="975" spans="3:3" ht="14.25" customHeight="1">
       <c r="C975" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="976" spans="3:3" ht="14.25" customHeight="1">
       <c r="C976" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="977" spans="3:3" ht="14.25" customHeight="1">
       <c r="C977" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="978" spans="3:3" ht="14.25" customHeight="1">
       <c r="C978" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="979" spans="3:3" ht="14.25" customHeight="1">
       <c r="C979" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="980" spans="3:3" ht="14.25" customHeight="1">
       <c r="C980" s="21" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="981" spans="3:3" ht="14.25" customHeight="1">
       <c r="C981" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="982" spans="3:3" ht="14.25" customHeight="1">
       <c r="C982" s="22" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="983" spans="3:3" ht="14.25" customHeight="1">
       <c r="C983" s="22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="984" spans="3:3" ht="14.25" customHeight="1">
       <c r="C984" s="22" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="985" spans="3:3" ht="14.25" customHeight="1">
       <c r="C985" s="21" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="986" spans="3:3" ht="14.25" customHeight="1">
       <c r="C986" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="987" spans="3:3" ht="14.25" customHeight="1">
       <c r="C987" s="22" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="988" spans="3:3" ht="14.25" customHeight="1">
       <c r="C988" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="989" spans="3:3" ht="14.25" customHeight="1">
       <c r="C989" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="990" spans="3:3" ht="14.25" customHeight="1">
       <c r="C990" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="991" spans="3:3" ht="14.25" customHeight="1">
       <c r="C991" s="22" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="992" spans="3:3" ht="14.25" customHeight="1">
       <c r="C992" s="22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="993" spans="3:3" ht="14.25" customHeight="1">
       <c r="C993" s="22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="994" spans="3:3" ht="14.25" customHeight="1">
       <c r="C994" s="22" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="995" spans="3:3" ht="14.25" customHeight="1">
       <c r="C995" s="22" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="996" spans="3:3" ht="14.25" customHeight="1">
       <c r="C996" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="997" spans="3:3" ht="14.25" customHeight="1">
       <c r="C997" s="22" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="998" spans="3:3" ht="14.25" customHeight="1">
       <c r="C998" s="22" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="999" spans="3:3" ht="14.25" customHeight="1">
       <c r="C999" s="22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1000" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1000" s="22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1001" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1001" s="21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1002" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1002" s="21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1003" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1003" s="22" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1004" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1004" s="22" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1005" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1005" s="22" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1006" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1006" s="22" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1007" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1007" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1008" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1008" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1009" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1009" s="21" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1010" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1010" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1011" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1011" s="21" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1012" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1012" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1013" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1013" s="21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1014" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1014" s="22" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1015" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1015" s="22" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1016" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1016" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1017" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1017" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1018" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1018" s="22" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1019" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1019" s="22" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1020" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1020" s="22" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1021" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1021" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1022" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1022" s="22" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1023" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1023" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1024" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1024" s="22" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1025" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1025" s="21" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1026" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1026" s="21" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1027" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1027" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1028" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1028" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1029" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1029" s="21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1030" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1030" s="22" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1031" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1031" s="22" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1032" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1032" s="22" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1033" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1033" s="19" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1034" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1034" s="21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1035" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1035" s="22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1036" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1036" s="21" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1037" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1037" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1038" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1038" s="21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1039" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1039" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1040" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1040" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1041" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1041" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1042" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1042" s="22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1043" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1043" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1044" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1044" s="22" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1045" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1045" s="22" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1046" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1046" s="21" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1047" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1047" s="22" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1048" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1048" s="22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1049" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1049" s="22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1050" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1050" s="21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1051" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1051" s="22" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1052" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1052" s="22" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1053" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1053" s="21" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1054" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1054" s="22" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1055" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1055" s="21" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1056" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1056" s="22" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1057" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1057" s="21" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1058" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1058" s="22" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1059" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1059" s="22" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1060" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1060" s="22" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1061" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1061" s="22" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1062" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1062" s="22" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1063" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1063" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1064" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1064" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1065" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1065" s="21" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1066" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1066" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1067" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1067" s="22" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1068" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1068" s="21" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1069" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1069" s="22" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1070" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1070" s="21" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1071" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1071" s="22" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1072" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1072" s="22" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1073" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1073" s="22" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1074" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1074" s="22" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1075" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1075" s="21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1076" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1076" s="21" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1077" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1077" s="22" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1078" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1078" s="22" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1079" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1079" s="21" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1080" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1080" s="22" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1081" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1081" s="21" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1082" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1082" s="22" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1083" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1083" s="22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1084" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1084" s="22" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1085" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1085" s="21" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1086" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1086" s="21" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1087" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1087" s="21" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1088" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1088" s="22" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1089" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1089" s="22" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1090" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1090" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1091" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1091" s="22" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1092" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1092" s="22" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1093" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1093" s="22" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1094" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1094" s="22" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1095" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1095" s="22" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1096" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1096" s="21" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1097" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1097" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1098" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1098" s="21" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1099" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1099" s="22" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1100" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1100" s="22" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1101" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1101" s="22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1102" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1102" s="21" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1103" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1103" s="21" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1104" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1104" s="21" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1105" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1105" s="21" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1106" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1106" s="19" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1107" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1107" s="22" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1108" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1108" s="22" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1109" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1109" s="21" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1110" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1110" s="22" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1111" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1111" s="22" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1112" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1112" s="21" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1113" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1113" s="22" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1114" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1114" s="21" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1115" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1115" s="22" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1116" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1116" s="22" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1117" spans="3:3" ht="14.25" customHeight="1">
       <c r="C1117" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>

--- a/public/DownloadExcels/Sedes.xlsx
+++ b/public/DownloadExcels/Sedes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22242DB7-BF42-495A-A54B-7AF7A6392C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55053273-9CC8-449B-9E18-BCEB5425C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDES" sheetId="1" r:id="rId1"/>
@@ -3941,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="A9:F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17413,7 +17413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EDAA99-3185-47A7-BDEA-165E01ABD3EC}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/public/DownloadExcels/Sedes.xlsx
+++ b/public/DownloadExcels/Sedes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55053273-9CC8-449B-9E18-BCEB5425C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD61338-D50A-4382-A83C-2FEF14FC156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1110">
   <si>
     <t>CREACION MASIVA DE SEDES</t>
   </si>
@@ -3337,6 +3337,36 @@
   </si>
   <si>
     <t>13. En la columna K, DIGITA EL NÚMERO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
+  </si>
+  <si>
+    <t>Sede Occ</t>
+  </si>
+  <si>
+    <t>Sede Ss</t>
+  </si>
+  <si>
+    <t>Cra 100</t>
+  </si>
+  <si>
+    <t>Cra 200</t>
+  </si>
+  <si>
+    <t>sede@gmail.com</t>
+  </si>
+  <si>
+    <t>sede2@gmail.com</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>reyes</t>
   </si>
 </sst>
 </file>
@@ -3347,7 +3377,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3409,6 +3439,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3615,10 +3652,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -3685,8 +3723,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3941,8 +3983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4044,31 +4086,71 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1215454</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="13">
+        <v>112121212</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5485412</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="13">
+        <v>545454545</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
       <c r="A6" s="6">
@@ -17379,9 +17461,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B1E4B9AD-8B77-4957-9C69-5F0D7FD167DF}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{7A14A8BC-D5C7-44B8-8723-EBB3C4F1772D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/public/DownloadExcels/Sedes.xlsx
+++ b/public/DownloadExcels/Sedes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD61338-D50A-4382-A83C-2FEF14FC156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193601F-5FE2-48D5-BDF2-48DE3AA11346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDES" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1100">
   <si>
     <t>CREACION MASIVA DE SEDES</t>
   </si>
@@ -3337,36 +3337,6 @@
   </si>
   <si>
     <t>13. En la columna K, DIGITA EL NÚMERO DE IDENTIDAD DEL / DE LA ADMINISTRADOR@ DE LA SEDE.</t>
-  </si>
-  <si>
-    <t>Sede Occ</t>
-  </si>
-  <si>
-    <t>Sede Ss</t>
-  </si>
-  <si>
-    <t>Cra 100</t>
-  </si>
-  <si>
-    <t>Cra 200</t>
-  </si>
-  <si>
-    <t>sede@gmail.com</t>
-  </si>
-  <si>
-    <t>sede2@gmail.com</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>reyes</t>
   </si>
 </sst>
 </file>
@@ -3718,14 +3688,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3983,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4000,19 +3970,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1">
       <c r="A2" s="1"/>
@@ -4086,71 +4056,31 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1215454</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>1108</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="13">
-        <v>112121212</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5485412</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>1107</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>1109</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="13">
-        <v>545454545</v>
-      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
       <c r="A6" s="6">
@@ -17461,13 +17391,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{B1E4B9AD-8B77-4957-9C69-5F0D7FD167DF}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{7A14A8BC-D5C7-44B8-8723-EBB3C4F1772D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -17506,19 +17432,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">

--- a/public/DownloadExcels/Sedes.xlsx
+++ b/public/DownloadExcels/Sedes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7193601F-5FE2-48D5-BDF2-48DE3AA11346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B4201-3C74-4191-BA30-5233961FC00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDES" sheetId="1" r:id="rId1"/>
